--- a/ML Applications/CAT BOND ISSUE_1999-2021.xlsx
+++ b/ML Applications/CAT BOND ISSUE_1999-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0130739\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C095743-B5F1-469B-83FA-88BDAE8847B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C265633B-1DAF-4D70-A0C0-B075D9EAE959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C0E2DE01-D962-4BD3-B226-63A64C7574ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4297" uniqueCount="1274">
   <si>
     <t>SPV</t>
   </si>
@@ -2781,9 +2781,6 @@
     <t>American Strategic  Ins</t>
   </si>
   <si>
-    <t>Dec-19</t>
-  </si>
-  <si>
     <t>Bonanza Re 2016-1 B</t>
   </si>
   <si>
@@ -2820,9 +2817,6 @@
     <t>GC, AB</t>
   </si>
   <si>
-    <t>Jan-20</t>
-  </si>
-  <si>
     <t>Galilei Re 2016-1 B-1</t>
   </si>
   <si>
@@ -2877,9 +2871,6 @@
     <t>GS, SR, CIT</t>
   </si>
   <si>
-    <t>Jun-20</t>
-  </si>
-  <si>
     <t>Residential Re 2016-I 11</t>
   </si>
   <si>
@@ -2889,15 +2880,9 @@
     <t>Residential Re 2016-II 2</t>
   </si>
   <si>
-    <t>Dec-17</t>
-  </si>
-  <si>
     <t>Residential Re 2016-II 3</t>
   </si>
   <si>
-    <t>Dec-20</t>
-  </si>
-  <si>
     <t>Residential Re 2016-II 4</t>
   </si>
   <si>
@@ -2905,9 +2890,6 @@
   </si>
   <si>
     <t>Allstate</t>
-  </si>
-  <si>
-    <t>Dec-21</t>
   </si>
   <si>
     <t>Skyline Re 2017-1 Class 1</t>
@@ -3727,81 +3709,6 @@
       <t>Conditional
 Expected Loss</t>
     </r>
-  </si>
-  <si>
-    <t>Mar-20</t>
-  </si>
-  <si>
-    <t>May-19</t>
-  </si>
-  <si>
-    <t>Feb-20</t>
-  </si>
-  <si>
-    <t>Jun-19</t>
-  </si>
-  <si>
-    <t>Nov-19</t>
-  </si>
-  <si>
-    <t>Apr-19</t>
-  </si>
-  <si>
-    <t>Feb-23</t>
-  </si>
-  <si>
-    <t>Apr-24</t>
-  </si>
-  <si>
-    <t>Jun-22</t>
-  </si>
-  <si>
-    <t>Jun-23</t>
-  </si>
-  <si>
-    <t>Feb-24</t>
-  </si>
-  <si>
-    <t>Jun-24</t>
-  </si>
-  <si>
-    <t>May-22</t>
-  </si>
-  <si>
-    <t>Dec-22</t>
-  </si>
-  <si>
-    <t>Mar-25</t>
-  </si>
-  <si>
-    <t>Jan-24</t>
-  </si>
-  <si>
-    <t>Mar-24</t>
-  </si>
-  <si>
-    <t>Apr-23</t>
-  </si>
-  <si>
-    <t>Dec-23</t>
-  </si>
-  <si>
-    <t>Dec-24</t>
-  </si>
-  <si>
-    <t>Apr-22</t>
-  </si>
-  <si>
-    <t>Jan-23</t>
-  </si>
-  <si>
-    <t>Jan-25</t>
-  </si>
-  <si>
-    <t>Jul-23</t>
-  </si>
-  <si>
-    <t>Mar-23</t>
   </si>
   <si>
     <t>Allied World</t>
@@ -3950,45 +3857,6 @@
     </r>
   </si>
   <si>
-    <t>Nov-20</t>
-  </si>
-  <si>
-    <t>Apr-20</t>
-  </si>
-  <si>
-    <t>Jul-20</t>
-  </si>
-  <si>
-    <t>Jun-21</t>
-  </si>
-  <si>
-    <t>Jan-22</t>
-  </si>
-  <si>
-    <t>Mar-21</t>
-  </si>
-  <si>
-    <t>May-20</t>
-  </si>
-  <si>
-    <t>May-23</t>
-  </si>
-  <si>
-    <t>Apr-25</t>
-  </si>
-  <si>
-    <t>Feb-21</t>
-  </si>
-  <si>
-    <t>Jul-24</t>
-  </si>
-  <si>
-    <t>Oct-20</t>
-  </si>
-  <si>
-    <t>Apr-26</t>
-  </si>
-  <si>
     <t>Matterhorn Re 2020-5 A</t>
   </si>
   <si>
@@ -4115,7 +3983,7 @@
     <t>GC, Tiger</t>
   </si>
   <si>
-    <t>Jan-21</t>
+    <t>02/01//2020</t>
   </si>
 </sst>
 </file>
@@ -4254,7 +4122,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4502,9 +4370,6 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4520,11 +4385,29 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4846,8 +4729,8 @@
   <dimension ref="A1:R900"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A837" sqref="A837:XFD837"/>
+      <pane ySplit="1" topLeftCell="A882" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I614" sqref="I614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4901,22 +4784,22 @@
         <v>11</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -7487,7 +7370,7 @@
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>131</v>
       </c>
@@ -7541,7 +7424,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>131</v>
       </c>
@@ -7595,7 +7478,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>131</v>
       </c>
@@ -7649,7 +7532,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>132</v>
       </c>
@@ -7703,7 +7586,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>132</v>
       </c>
@@ -7757,7 +7640,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
@@ -7811,7 +7694,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>132</v>
       </c>
@@ -7865,7 +7748,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
@@ -7919,7 +7802,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>133</v>
       </c>
@@ -7973,7 +7856,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>133</v>
       </c>
@@ -8027,7 +7910,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -8081,7 +7964,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>134</v>
       </c>
@@ -8135,7 +8018,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>134</v>
       </c>
@@ -8189,7 +8072,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -8243,7 +8126,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
@@ -8297,7 +8180,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
@@ -8351,7 +8234,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>135</v>
       </c>
@@ -8405,7 +8288,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>135</v>
       </c>
@@ -8459,7 +8342,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>136</v>
       </c>
@@ -8513,7 +8396,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>136</v>
       </c>
@@ -8567,7 +8450,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>136</v>
       </c>
@@ -8621,7 +8504,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>137</v>
       </c>
@@ -12643,7 +12526,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="20" t="s">
         <v>232</v>
       </c>
@@ -12699,7 +12582,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="20" t="s">
         <v>233</v>
       </c>
@@ -13239,7 +13122,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="20" t="s">
         <v>248</v>
       </c>
@@ -13295,7 +13178,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="20" t="s">
         <v>250</v>
       </c>
@@ -20132,7 +20015,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="285" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" s="20" t="s">
         <v>413</v>
       </c>
@@ -20188,7 +20071,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" s="20" t="s">
         <v>414</v>
       </c>
@@ -20356,7 +20239,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="289" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="20" t="s">
         <v>418</v>
       </c>
@@ -20412,7 +20295,7 @@
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="290" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" s="20" t="s">
         <v>419</v>
       </c>
@@ -20468,7 +20351,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" s="20" t="s">
         <v>420</v>
       </c>
@@ -20692,7 +20575,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" s="20" t="s">
         <v>425</v>
       </c>
@@ -20860,7 +20743,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="298" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" s="20" t="s">
         <v>431</v>
       </c>
@@ -20916,7 +20799,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="299" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" s="20" t="s">
         <v>432</v>
       </c>
@@ -20972,7 +20855,7 @@
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" s="20" t="s">
         <v>433</v>
       </c>
@@ -21028,7 +20911,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="301" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="20" t="s">
         <v>434</v>
       </c>
@@ -21084,7 +20967,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="302" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="20" t="s">
         <v>435</v>
       </c>
@@ -36145,7 +36028,7 @@
     </row>
     <row r="590" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>898</v>
@@ -36197,10 +36080,10 @@
     </row>
     <row r="591" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B591" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="B591" s="3" t="s">
-        <v>902</v>
       </c>
       <c r="C591" s="3" t="s">
         <v>852</v>
@@ -36249,10 +36132,10 @@
     </row>
     <row r="592" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C592" s="3" t="s">
         <v>852</v>
@@ -36301,10 +36184,10 @@
     </row>
     <row r="593" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B593" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="B593" s="3" t="s">
-        <v>905</v>
       </c>
       <c r="C593" s="3" t="s">
         <v>702</v>
@@ -36353,13 +36236,13 @@
     </row>
     <row r="594" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B594" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="B594" s="3" t="s">
+      <c r="C594" s="3" t="s">
         <v>907</v>
-      </c>
-      <c r="C594" s="3" t="s">
-        <v>908</v>
       </c>
       <c r="D594" s="57">
         <v>75000</v>
@@ -36405,13 +36288,13 @@
     </row>
     <row r="595" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B595" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="B595" s="3" t="s">
+      <c r="C595" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="C595" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="D595" s="57">
         <v>75000</v>
@@ -36457,13 +36340,13 @@
     </row>
     <row r="596" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B596" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C596" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="C596" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="D596" s="57">
         <v>125000</v>
@@ -36509,13 +36392,13 @@
     </row>
     <row r="597" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B597" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C597" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="C597" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="D597" s="57">
         <v>175000</v>
@@ -36561,13 +36444,13 @@
     </row>
     <row r="598" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B598" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C598" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="C598" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="D598" s="57">
         <v>175000</v>
@@ -36613,13 +36496,13 @@
     </row>
     <row r="599" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B599" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C599" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="C599" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="D599" s="57">
         <v>200000</v>
@@ -36665,13 +36548,13 @@
     </row>
     <row r="600" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B600" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C600" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="C600" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="D600" s="57">
         <v>50000</v>
@@ -36717,13 +36600,13 @@
     </row>
     <row r="601" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B601" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C601" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="C601" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="D601" s="57">
         <v>50000</v>
@@ -36769,13 +36652,13 @@
     </row>
     <row r="602" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B602" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C602" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="C602" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="D602" s="57">
         <v>150000</v>
@@ -36821,13 +36704,13 @@
     </row>
     <row r="603" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B603" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C603" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="C603" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="D603" s="57">
         <v>150000</v>
@@ -36873,13 +36756,13 @@
     </row>
     <row r="604" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B604" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C604" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="C604" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="D604" s="57">
         <v>125000</v>
@@ -36925,10 +36808,10 @@
     </row>
     <row r="605" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C605" s="3" t="s">
         <v>696</v>
@@ -36977,10 +36860,10 @@
     </row>
     <row r="606" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C606" s="3" t="s">
         <v>696</v>
@@ -37029,10 +36912,10 @@
     </row>
     <row r="607" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C607" s="3" t="s">
         <v>696</v>
@@ -37081,7 +36964,7 @@
     </row>
     <row r="608" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>719</v>
@@ -37133,7 +37016,7 @@
     </row>
     <row r="609" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>719</v>
@@ -37185,7 +37068,7 @@
     </row>
     <row r="610" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>105</v>
@@ -37237,13 +37120,13 @@
     </row>
     <row r="611" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D611" s="57">
         <v>65000</v>
@@ -37256,8 +37139,8 @@
       <c r="H611" s="13">
         <v>42491</v>
       </c>
-      <c r="I611" s="13" t="s">
-        <v>931</v>
+      <c r="I611" s="13">
+        <v>43836</v>
       </c>
       <c r="J611" s="14">
         <v>49</v>
@@ -37289,13 +37172,13 @@
     </row>
     <row r="612" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D612" s="57">
         <v>75000</v>
@@ -37308,8 +37191,8 @@
       <c r="H612" s="13">
         <v>42491</v>
       </c>
-      <c r="I612" s="13" t="s">
-        <v>931</v>
+      <c r="I612" s="13">
+        <v>43836</v>
       </c>
       <c r="J612" s="14">
         <v>49</v>
@@ -37341,13 +37224,13 @@
     </row>
     <row r="613" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B613" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D613" s="57">
         <v>110000</v>
@@ -37360,8 +37243,8 @@
       <c r="H613" s="13">
         <v>42491</v>
       </c>
-      <c r="I613" s="13" t="s">
-        <v>931</v>
+      <c r="I613" s="13">
+        <v>43836</v>
       </c>
       <c r="J613" s="14">
         <v>49</v>
@@ -37393,13 +37276,13 @@
     </row>
     <row r="614" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D614" s="57">
         <v>80000</v>
@@ -37412,8 +37295,8 @@
       <c r="H614" s="13">
         <v>42675</v>
       </c>
-      <c r="I614" s="13" t="s">
-        <v>935</v>
+      <c r="I614" s="13">
+        <v>42747</v>
       </c>
       <c r="J614" s="14">
         <v>12</v>
@@ -37445,13 +37328,13 @@
     </row>
     <row r="615" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D615" s="57">
         <v>150000</v>
@@ -37464,8 +37347,8 @@
       <c r="H615" s="13">
         <v>42675</v>
       </c>
-      <c r="I615" s="13" t="s">
-        <v>937</v>
+      <c r="I615" s="13">
+        <v>43842</v>
       </c>
       <c r="J615" s="14">
         <v>49</v>
@@ -37497,13 +37380,13 @@
     </row>
     <row r="616" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D616" s="57">
         <v>170000</v>
@@ -37516,8 +37399,8 @@
       <c r="H616" s="13">
         <v>42675</v>
       </c>
-      <c r="I616" s="13" t="s">
-        <v>937</v>
+      <c r="I616" s="13">
+        <v>43842</v>
       </c>
       <c r="J616" s="14">
         <v>49</v>
@@ -37549,10 +37432,10 @@
     </row>
     <row r="617" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C617" s="3" t="s">
         <v>702</v>
@@ -37568,8 +37451,8 @@
       <c r="H617" s="13">
         <v>42795</v>
       </c>
-      <c r="I617" s="13" t="s">
-        <v>941</v>
+      <c r="I617" s="13">
+        <v>44208</v>
       </c>
       <c r="J617" s="14">
         <v>56</v>
@@ -37599,10 +37482,10 @@
     </row>
     <row r="618" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C618" s="3" t="s">
         <v>748</v>
@@ -37618,8 +37501,8 @@
       <c r="H618" s="13">
         <v>42767</v>
       </c>
-      <c r="I618" s="13" t="s">
-        <v>912</v>
+      <c r="I618" s="13">
+        <v>43831</v>
       </c>
       <c r="J618" s="14">
         <v>34</v>
@@ -37641,10 +37524,10 @@
     </row>
     <row r="619" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C619" s="3" t="s">
         <v>748</v>
@@ -37660,8 +37543,8 @@
       <c r="H619" s="13">
         <v>42767</v>
       </c>
-      <c r="I619" s="13" t="s">
-        <v>912</v>
+      <c r="I619" s="13">
+        <v>43831</v>
       </c>
       <c r="J619" s="14">
         <v>34</v>
@@ -37683,10 +37566,10 @@
     </row>
     <row r="620" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C620" s="3" t="s">
         <v>696</v>
@@ -37702,8 +37585,8 @@
       <c r="H620" s="13">
         <v>42675</v>
       </c>
-      <c r="I620" s="13" t="s">
-        <v>899</v>
+      <c r="I620" s="13">
+        <v>43477</v>
       </c>
       <c r="J620" s="14">
         <v>36</v>
@@ -37735,7 +37618,7 @@
     </row>
     <row r="621" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B621" s="3" t="s">
         <v>306</v>
@@ -37787,19 +37670,19 @@
     </row>
     <row r="622" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D622" s="20" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="E622" s="3" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="F622" s="25"/>
       <c r="G622" s="25"/>
@@ -37810,36 +37693,36 @@
         <v>44652</v>
       </c>
       <c r="J622" s="20" t="s">
+        <v>947</v>
+      </c>
+      <c r="K622" s="20" t="s">
+        <v>947</v>
+      </c>
+      <c r="L622" s="20" t="s">
+        <v>948</v>
+      </c>
+      <c r="M622" s="20" t="s">
+        <v>949</v>
+      </c>
+      <c r="N622" s="20" t="s">
+        <v>950</v>
+      </c>
+      <c r="O622" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="P622" s="20" t="s">
+        <v>952</v>
+      </c>
+      <c r="Q622" s="20" t="s">
         <v>953</v>
       </c>
-      <c r="K622" s="20" t="s">
-        <v>953</v>
-      </c>
-      <c r="L622" s="20" t="s">
+      <c r="R622" s="20" t="s">
         <v>954</v>
-      </c>
-      <c r="M622" s="20" t="s">
-        <v>955</v>
-      </c>
-      <c r="N622" s="20" t="s">
-        <v>956</v>
-      </c>
-      <c r="O622" s="20" t="s">
-        <v>957</v>
-      </c>
-      <c r="P622" s="20" t="s">
-        <v>958</v>
-      </c>
-      <c r="Q622" s="20" t="s">
-        <v>959</v>
-      </c>
-      <c r="R622" s="20" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="623" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>244</v>
@@ -37891,13 +37774,13 @@
     </row>
     <row r="624" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="B624" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="D624" s="57">
         <v>75000</v>
@@ -37943,13 +37826,13 @@
     </row>
     <row r="625" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="B625" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="D625" s="57">
         <v>150000</v>
@@ -37995,13 +37878,13 @@
     </row>
     <row r="626" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B626" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="D626" s="57">
         <v>75000</v>
@@ -38047,13 +37930,13 @@
     </row>
     <row r="627" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="B627" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="D627" s="57">
         <v>75000</v>
@@ -38099,10 +37982,10 @@
     </row>
     <row r="628" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C628" s="3" t="s">
         <v>684</v>
@@ -38151,10 +38034,10 @@
     </row>
     <row r="629" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C629" s="3" t="s">
         <v>684</v>
@@ -38203,10 +38086,10 @@
     </row>
     <row r="630" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C630" s="3" t="s">
         <v>684</v>
@@ -38255,13 +38138,13 @@
     </row>
     <row r="631" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="D631" s="57">
         <v>500000</v>
@@ -38307,13 +38190,13 @@
     </row>
     <row r="632" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="D632" s="57">
         <v>400000</v>
@@ -38359,13 +38242,13 @@
     </row>
     <row r="633" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="D633" s="57">
         <v>160000</v>
@@ -38411,13 +38294,13 @@
     </row>
     <row r="634" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="D634" s="57">
         <v>100000</v>
@@ -38463,13 +38346,13 @@
     </row>
     <row r="635" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="D635" s="57">
         <v>200000</v>
@@ -38515,13 +38398,13 @@
     </row>
     <row r="636" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D636" s="57">
         <v>66950</v>
@@ -38565,13 +38448,13 @@
     </row>
     <row r="637" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C637" s="3" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D637" s="57">
         <v>26300</v>
@@ -38615,13 +38498,13 @@
     </row>
     <row r="638" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D638" s="57">
         <v>6750</v>
@@ -38665,10 +38548,10 @@
     </row>
     <row r="639" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="C639" s="3" t="s">
         <v>588</v>
@@ -38717,7 +38600,7 @@
     </row>
     <row r="640" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B640" s="3" t="s">
         <v>862</v>
@@ -38769,10 +38652,10 @@
     </row>
     <row r="641" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C641" s="3" t="s">
         <v>696</v>
@@ -38821,13 +38704,13 @@
     </row>
     <row r="642" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C642" s="3" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D642" s="57">
         <v>100000</v>
@@ -38873,13 +38756,13 @@
     </row>
     <row r="643" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B643" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C643" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="C643" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="D643" s="57">
         <v>75000</v>
@@ -38925,13 +38808,13 @@
     </row>
     <row r="644" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B644" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C644" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="C644" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="D644" s="57">
         <v>75000</v>
@@ -38977,13 +38860,13 @@
     </row>
     <row r="645" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D645" s="57">
         <v>53000</v>
@@ -39029,13 +38912,13 @@
     </row>
     <row r="646" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D646" s="57">
         <v>53000</v>
@@ -39081,10 +38964,10 @@
     </row>
     <row r="647" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C647" s="3" t="s">
         <v>588</v>
@@ -39133,10 +39016,10 @@
     </row>
     <row r="648" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C648" s="3" t="s">
         <v>588</v>
@@ -39185,10 +39068,10 @@
     </row>
     <row r="649" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C649" s="3" t="s">
         <v>588</v>
@@ -39237,10 +39120,10 @@
     </row>
     <row r="650" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C650" s="3" t="s">
         <v>588</v>
@@ -39289,7 +39172,7 @@
     </row>
     <row r="651" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="B651" s="6" t="s">
         <v>800</v>
@@ -39341,7 +39224,7 @@
     </row>
     <row r="652" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="B652" s="6" t="s">
         <v>800</v>
@@ -39393,7 +39276,7 @@
     </row>
     <row r="653" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="B653" s="6" t="s">
         <v>800</v>
@@ -39445,7 +39328,7 @@
     </row>
     <row r="654" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="B654" s="6" t="s">
         <v>800</v>
@@ -39497,7 +39380,7 @@
     </row>
     <row r="655" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B655" s="6" t="s">
         <v>800</v>
@@ -39549,7 +39432,7 @@
     </row>
     <row r="656" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B656" s="6" t="s">
         <v>800</v>
@@ -39601,7 +39484,7 @@
     </row>
     <row r="657" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B657" s="6" t="s">
         <v>247</v>
@@ -39653,7 +39536,7 @@
     </row>
     <row r="658" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B658" s="6" t="s">
         <v>247</v>
@@ -39705,10 +39588,10 @@
     </row>
     <row r="659" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B659" s="6" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C659" s="6" t="s">
         <v>684</v>
@@ -39757,7 +39640,7 @@
     </row>
     <row r="660" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B660" s="6" t="s">
         <v>348</v>
@@ -39806,13 +39689,13 @@
     </row>
     <row r="661" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="C661" s="6" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D661" s="62">
         <v>125000</v>
@@ -39858,7 +39741,7 @@
     </row>
     <row r="662" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="B662" s="6" t="s">
         <v>719</v>
@@ -39910,7 +39793,7 @@
     </row>
     <row r="663" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B663" s="6" t="s">
         <v>719</v>
@@ -39962,10 +39845,10 @@
     </row>
     <row r="664" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="B664" s="6" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="C664" s="6" t="s">
         <v>702</v>
@@ -40014,10 +39897,10 @@
     </row>
     <row r="665" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="B665" s="6" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C665" s="6" t="s">
         <v>588</v>
@@ -40066,13 +39949,13 @@
     </row>
     <row r="666" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="B666" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C666" s="6" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D666" s="62">
         <v>50000</v>
@@ -40118,13 +40001,13 @@
     </row>
     <row r="667" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B667" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C667" s="6" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D667" s="62">
         <v>225000</v>
@@ -40170,13 +40053,13 @@
     </row>
     <row r="668" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B668" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C668" s="6" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D668" s="62">
         <v>150000</v>
@@ -40222,13 +40105,13 @@
     </row>
     <row r="669" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="B669" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C669" s="6" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D669" s="62">
         <v>55000</v>
@@ -40274,13 +40157,13 @@
     </row>
     <row r="670" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B670" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C670" s="6" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D670" s="62">
         <v>110000</v>
@@ -40326,13 +40209,13 @@
     </row>
     <row r="671" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="B671" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C671" s="6" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D671" s="62">
         <v>130000</v>
@@ -40378,10 +40261,10 @@
     </row>
     <row r="672" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="B672" s="6" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="C672" s="6" t="s">
         <v>716</v>
@@ -40430,10 +40313,10 @@
     </row>
     <row r="673" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="B673" s="6" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="C673" s="6" t="s">
         <v>716</v>
@@ -40482,10 +40365,10 @@
     </row>
     <row r="674" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="B674" s="6" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C674" s="6" t="s">
         <v>821</v>
@@ -40534,10 +40417,10 @@
     </row>
     <row r="675" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B675" s="6" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C675" s="6" t="s">
         <v>821</v>
@@ -40583,10 +40466,10 @@
     </row>
     <row r="676" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="B676" s="6" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="C676" s="6" t="s">
         <v>702</v>
@@ -40635,10 +40518,10 @@
     </row>
     <row r="677" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="B677" s="6" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="C677" s="6" t="s">
         <v>702</v>
@@ -40687,10 +40570,10 @@
     </row>
     <row r="678" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="B678" s="6" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="C678" s="6" t="s">
         <v>702</v>
@@ -40739,10 +40622,10 @@
     </row>
     <row r="679" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B679" s="6" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="C679" s="6" t="s">
         <v>702</v>
@@ -40791,10 +40674,10 @@
     </row>
     <row r="680" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="B680" s="6" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="C680" s="6" t="s">
         <v>702</v>
@@ -40843,13 +40726,13 @@
     </row>
     <row r="681" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="B681" s="6" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="C681" s="6" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D681" s="62">
         <v>45000</v>
@@ -40895,13 +40778,13 @@
     </row>
     <row r="682" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="B682" s="6" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="C682" s="6" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D682" s="62">
         <v>66000</v>
@@ -40947,13 +40830,13 @@
     </row>
     <row r="683" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="B683" s="6" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="C683" s="6" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D683" s="62">
         <v>55000</v>
@@ -40999,13 +40882,13 @@
     </row>
     <row r="684" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="B684" s="6" t="s">
         <v>889</v>
       </c>
       <c r="C684" s="6" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D684" s="62">
         <v>425000</v>
@@ -41051,13 +40934,13 @@
     </row>
     <row r="685" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="B685" s="6" t="s">
         <v>889</v>
       </c>
       <c r="C685" s="6" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D685" s="62">
         <v>500000</v>
@@ -41103,13 +40986,13 @@
     </row>
     <row r="686" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B686" s="6" t="s">
         <v>889</v>
       </c>
       <c r="C686" s="6" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D686" s="62">
         <v>200000</v>
@@ -41155,13 +41038,13 @@
     </row>
     <row r="687" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="B687" s="6" t="s">
         <v>889</v>
       </c>
       <c r="C687" s="6" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D687" s="62">
         <v>200000</v>
@@ -41207,10 +41090,10 @@
     </row>
     <row r="688" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A688" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="C688" s="3" t="s">
         <v>588</v>
@@ -41259,10 +41142,10 @@
     </row>
     <row r="689" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A689" s="3" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C689" s="3" t="s">
         <v>588</v>
@@ -41311,10 +41194,10 @@
     </row>
     <row r="690" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A690" s="3" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C690" s="3" t="s">
         <v>852</v>
@@ -41363,7 +41246,7 @@
     </row>
     <row r="691" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>49</v>
@@ -41415,13 +41298,13 @@
     </row>
     <row r="692" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A692" s="3" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C692" s="3" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D692" s="57">
         <v>50927</v>
@@ -41467,13 +41350,13 @@
     </row>
     <row r="693" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A693" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D693" s="57">
         <v>250000</v>
@@ -41519,13 +41402,13 @@
     </row>
     <row r="694" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A694" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D694" s="57">
         <v>100000</v>
@@ -41571,13 +41454,13 @@
     </row>
     <row r="695" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A695" s="3" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C695" s="3" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D695" s="57">
         <v>150000</v>
@@ -41623,13 +41506,13 @@
     </row>
     <row r="696" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A696" s="3" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D696" s="57">
         <v>125000</v>
@@ -41675,13 +41558,13 @@
     </row>
     <row r="697" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A697" s="3" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C697" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D697" s="57">
         <v>75000</v>
@@ -41727,13 +41610,13 @@
     </row>
     <row r="698" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A698" s="3" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D698" s="57">
         <v>175000</v>
@@ -41779,13 +41662,13 @@
     </row>
     <row r="699" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A699" s="3" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D699" s="57">
         <v>75000</v>
@@ -41831,10 +41714,10 @@
     </row>
     <row r="700" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A700" s="3" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="C700" s="3" t="s">
         <v>588</v>
@@ -41883,10 +41766,10 @@
     </row>
     <row r="701" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A701" s="3" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C701" s="3" t="s">
         <v>588</v>
@@ -41935,7 +41818,7 @@
     </row>
     <row r="702" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A702" s="3" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>862</v>
@@ -41987,13 +41870,13 @@
     </row>
     <row r="703" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A703" s="3" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="D703" s="57">
         <v>325000</v>
@@ -42039,13 +41922,13 @@
     </row>
     <row r="704" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A704" s="3" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="D704" s="57">
         <v>175000</v>
@@ -42091,10 +41974,10 @@
     </row>
     <row r="705" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A705" s="3" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="C705" s="3" t="s">
         <v>696</v>
@@ -42143,10 +42026,10 @@
     </row>
     <row r="706" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A706" s="3" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="C706" s="3" t="s">
         <v>696</v>
@@ -42195,10 +42078,10 @@
     </row>
     <row r="707" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A707" s="3" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C707" s="3" t="s">
         <v>852</v>
@@ -42247,7 +42130,7 @@
     </row>
     <row r="708" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A708" s="3" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>244</v>
@@ -42299,7 +42182,7 @@
     </row>
     <row r="709" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A709" s="3" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>244</v>
@@ -42351,10 +42234,10 @@
     </row>
     <row r="710" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A710" s="3" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C710" s="3" t="s">
         <v>588</v>
@@ -42403,13 +42286,13 @@
     </row>
     <row r="711" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A711" s="3" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D711" s="57">
         <v>62500</v>
@@ -42455,13 +42338,13 @@
     </row>
     <row r="712" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A712" s="3" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D712" s="57">
         <v>200000</v>
@@ -42507,13 +42390,13 @@
     </row>
     <row r="713" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A713" s="3" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D713" s="57">
         <v>62500</v>
@@ -42559,13 +42442,13 @@
     </row>
     <row r="714" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A714" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B714" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D714" s="57">
         <v>200000</v>
@@ -42611,13 +42494,13 @@
     </row>
     <row r="715" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A715" s="3" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="D715" s="57">
         <v>500000</v>
@@ -42663,10 +42546,10 @@
     </row>
     <row r="716" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A716" s="3" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="C716" s="3" t="s">
         <v>625</v>
@@ -42715,10 +42598,10 @@
     </row>
     <row r="717" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A717" s="3" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="C717" s="3" t="s">
         <v>625</v>
@@ -42767,10 +42650,10 @@
     </row>
     <row r="718" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A718" s="3" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="C718" s="3" t="s">
         <v>588</v>
@@ -42819,10 +42702,10 @@
     </row>
     <row r="719" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A719" s="3" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C719" s="3" t="s">
         <v>588</v>
@@ -42871,13 +42754,13 @@
     </row>
     <row r="720" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A720" s="3" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="D720" s="57">
         <v>100000</v>
@@ -42923,13 +42806,13 @@
     </row>
     <row r="721" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A721" s="3" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="D721" s="57">
         <v>250000</v>
@@ -42975,13 +42858,13 @@
     </row>
     <row r="722" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A722" s="3" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C722" s="3" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="D722" s="57">
         <v>50000</v>
@@ -43027,13 +42910,13 @@
     </row>
     <row r="723" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A723" s="3" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="B723" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C723" s="3" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="D723" s="57">
         <v>150000</v>
@@ -43079,13 +42962,13 @@
     </row>
     <row r="724" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A724" s="3" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C724" s="3" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D724" s="57">
         <v>300000</v>
@@ -43129,13 +43012,13 @@
     </row>
     <row r="725" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A725" s="3" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="C725" s="3" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="D725" s="57">
         <v>125000</v>
@@ -43181,10 +43064,10 @@
     </row>
     <row r="726" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A726" s="3" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C726" s="3" t="s">
         <v>696</v>
@@ -43233,7 +43116,7 @@
     </row>
     <row r="727" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A727" s="3" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="B727" s="3" t="s">
         <v>244</v>
@@ -43285,7 +43168,7 @@
     </row>
     <row r="728" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A728" s="3" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>306</v>
@@ -43337,10 +43220,10 @@
     </row>
     <row r="729" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A729" s="3" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="C729" s="3" t="s">
         <v>588</v>
@@ -43389,13 +43272,13 @@
     </row>
     <row r="730" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A730" s="3" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D730" s="57">
         <v>100000</v>
@@ -43441,10 +43324,10 @@
     </row>
     <row r="731" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A731" s="3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="C731" s="3" t="s">
         <v>588</v>
@@ -43493,13 +43376,13 @@
     </row>
     <row r="732" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A732" s="3" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D732" s="57">
         <v>200000</v>
@@ -43545,13 +43428,13 @@
     </row>
     <row r="733" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A733" s="3" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D733" s="57">
         <v>150000</v>
@@ -43597,13 +43480,13 @@
     </row>
     <row r="734" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A734" s="3" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C734" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D734" s="57">
         <v>150000</v>
@@ -43649,13 +43532,13 @@
     </row>
     <row r="735" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A735" s="3" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="B735" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C735" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D735" s="57">
         <v>75000</v>
@@ -43701,13 +43584,13 @@
     </row>
     <row r="736" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A736" s="3" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="B736" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D736" s="57">
         <v>75000</v>
@@ -43753,13 +43636,13 @@
     </row>
     <row r="737" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A737" s="3" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C737" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D737" s="57">
         <v>40000</v>
@@ -43805,10 +43688,10 @@
     </row>
     <row r="738" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A738" s="3" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="C738" s="3" t="s">
         <v>588</v>
@@ -43857,10 +43740,10 @@
     </row>
     <row r="739" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A739" s="3" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C739" s="3" t="s">
         <v>846</v>
@@ -43909,10 +43792,10 @@
     </row>
     <row r="740" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A740" s="3" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C740" s="3" t="s">
         <v>846</v>
@@ -43961,10 +43844,10 @@
     </row>
     <row r="741" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A741" s="3" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="C741" s="3" t="s">
         <v>696</v>
@@ -44013,7 +43896,7 @@
     </row>
     <row r="742" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A742" s="3" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>244</v>
@@ -44065,7 +43948,7 @@
     </row>
     <row r="743" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A743" s="3" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="B743" s="3" t="s">
         <v>244</v>
@@ -44117,7 +44000,7 @@
     </row>
     <row r="744" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A744" s="3" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="B744" s="3" t="s">
         <v>244</v>
@@ -44169,7 +44052,7 @@
     </row>
     <row r="745" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A745" s="3" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="B745" s="3" t="s">
         <v>244</v>
@@ -44221,13 +44104,13 @@
     </row>
     <row r="746" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A746" s="3" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D746" s="57">
         <v>75000</v>
@@ -44273,13 +44156,13 @@
     </row>
     <row r="747" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A747" s="3" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D747" s="57">
         <v>250000</v>
@@ -44325,13 +44208,13 @@
     </row>
     <row r="748" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A748" s="3" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D748" s="57">
         <v>150000</v>
@@ -44377,13 +44260,13 @@
     </row>
     <row r="749" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A749" s="3" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C749" s="3" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="D749" s="57">
         <v>133224</v>
@@ -44429,13 +44312,13 @@
     </row>
     <row r="750" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A750" s="3" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C750" s="3" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="D750" s="57">
         <v>175000</v>
@@ -44481,13 +44364,13 @@
     </row>
     <row r="751" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A751" s="3" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="D751" s="57">
         <v>60000</v>
@@ -44533,13 +44416,13 @@
     </row>
     <row r="752" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A752" s="3" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="D752" s="57">
         <v>125000</v>
@@ -44585,13 +44468,13 @@
     </row>
     <row r="753" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A753" s="3" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="D753" s="57">
         <v>125000</v>
@@ -44637,7 +44520,7 @@
     </row>
     <row r="754" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A754" s="3" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>244</v>
@@ -44689,7 +44572,7 @@
     </row>
     <row r="755" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A755" s="3" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="B755" s="3" t="s">
         <v>244</v>
@@ -44741,13 +44624,13 @@
     </row>
     <row r="756" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A756" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="B756" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C756" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="D756" s="57">
         <v>150000</v>
@@ -44793,13 +44676,13 @@
     </row>
     <row r="757" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A757" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="B757" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="D757" s="57">
         <v>275000</v>
@@ -44845,13 +44728,13 @@
     </row>
     <row r="758" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A758" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="B758" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C758" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="D758" s="57">
         <v>150000</v>
@@ -44897,13 +44780,13 @@
     </row>
     <row r="759" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A759" s="3" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="B759" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="D759" s="57">
         <v>275000</v>
@@ -44949,13 +44832,13 @@
     </row>
     <row r="760" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A760" s="3" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D760" s="57">
         <v>20000</v>
@@ -45001,13 +44884,13 @@
     </row>
     <row r="761" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A761" s="3" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="C761" s="3" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D761" s="57">
         <v>20000</v>
@@ -45053,7 +44936,7 @@
     </row>
     <row r="762" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A762" s="3" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="B762" s="3" t="s">
         <v>109</v>
@@ -45105,7 +44988,7 @@
     </row>
     <row r="763" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A763" s="3" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>109</v>
@@ -45157,7 +45040,7 @@
     </row>
     <row r="764" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A764" s="3" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>109</v>
@@ -45209,7 +45092,7 @@
     </row>
     <row r="765" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A765" s="3" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>109</v>
@@ -45261,7 +45144,7 @@
     </row>
     <row r="766" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A766" s="3" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>109</v>
@@ -45313,7 +45196,7 @@
     </row>
     <row r="767" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A767" s="3" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="B767" s="3" t="s">
         <v>348</v>
@@ -45361,13 +45244,13 @@
     </row>
     <row r="768" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A768" s="3" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="D768" s="57">
         <v>250000</v>
@@ -45413,13 +45296,13 @@
     </row>
     <row r="769" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A769" s="3" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C769" s="3" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="D769" s="57">
         <v>150000</v>
@@ -45465,13 +45348,13 @@
     </row>
     <row r="770" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A770" s="3" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B770" s="3" t="s">
         <v>719</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="D770" s="57">
         <v>200000</v>
@@ -45517,10 +45400,10 @@
     </row>
     <row r="771" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A771" s="3" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C771" s="3" t="s">
         <v>588</v>
@@ -45569,13 +45452,13 @@
     </row>
     <row r="772" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A772" s="3" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B772" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D772" s="57">
         <v>60000</v>
@@ -45621,13 +45504,13 @@
     </row>
     <row r="773" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A773" s="3" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B773" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D773" s="57">
         <v>75000</v>
@@ -45673,13 +45556,13 @@
     </row>
     <row r="774" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A774" s="3" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B774" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D774" s="57">
         <v>50000</v>
@@ -45725,13 +45608,13 @@
     </row>
     <row r="775" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A775" s="3" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C775" s="3" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D775" s="57">
         <v>110000</v>
@@ -45777,13 +45660,13 @@
     </row>
     <row r="776" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A776" s="3" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C776" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D776" s="57">
         <v>150000</v>
@@ -45829,13 +45712,13 @@
     </row>
     <row r="777" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A777" s="3" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D777" s="57">
         <v>100000</v>
@@ -45881,13 +45764,13 @@
     </row>
     <row r="778" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A778" s="3" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D778" s="57">
         <v>150000</v>
@@ -45933,13 +45816,13 @@
     </row>
     <row r="779" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A779" s="3" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C779" s="3" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D779" s="57">
         <v>75000</v>
@@ -45985,10 +45868,10 @@
     </row>
     <row r="780" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A780" s="3" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="C780" s="3" t="s">
         <v>592</v>
@@ -46037,13 +45920,13 @@
     </row>
     <row r="781" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A781" s="3" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="D781" s="57">
         <v>400000</v>
@@ -46089,7 +45972,7 @@
     </row>
     <row r="782" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A782" s="63" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="B782" s="64" t="s">
         <v>244</v>
@@ -46103,11 +45986,11 @@
       <c r="E782" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H782" s="65" t="s">
-        <v>912</v>
-      </c>
-      <c r="I782" s="64" t="s">
-        <v>1200</v>
+      <c r="H782" s="89">
+        <v>43831</v>
+      </c>
+      <c r="I782" s="90">
+        <v>44928</v>
       </c>
       <c r="J782" s="67">
         <v>36</v>
@@ -46139,7 +46022,7 @@
     </row>
     <row r="783" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A783" s="63" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B783" s="64" t="s">
         <v>306</v>
@@ -46153,11 +46036,11 @@
       <c r="E783" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H783" s="65" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I783" s="64" t="s">
-        <v>1201</v>
+      <c r="H783" s="89">
+        <v>43833</v>
+      </c>
+      <c r="I783" s="90">
+        <v>45295</v>
       </c>
       <c r="J783" s="67">
         <v>48</v>
@@ -46189,10 +46072,10 @@
     </row>
     <row r="784" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A784" s="63" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="B784" s="64" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="C784" s="65" t="s">
         <v>588</v>
@@ -46203,11 +46086,11 @@
       <c r="E784" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H784" s="65" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I784" s="64" t="s">
-        <v>1202</v>
+      <c r="H784" s="89">
+        <v>43470</v>
+      </c>
+      <c r="I784" s="90">
+        <v>44567</v>
       </c>
       <c r="J784" s="67">
         <v>36</v>
@@ -46239,13 +46122,13 @@
     </row>
     <row r="785" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A785" s="63" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="B785" s="64" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C785" s="65" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D785" s="66">
         <v>100000</v>
@@ -46253,11 +46136,11 @@
       <c r="E785" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H785" s="65" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I785" s="64" t="s">
-        <v>1202</v>
+      <c r="H785" s="89">
+        <v>43470</v>
+      </c>
+      <c r="I785" s="90">
+        <v>44567</v>
       </c>
       <c r="J785" s="67">
         <v>36</v>
@@ -46289,10 +46172,10 @@
     </row>
     <row r="786" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A786" s="63" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="B786" s="64" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="C786" s="65" t="s">
         <v>588</v>
@@ -46303,11 +46186,11 @@
       <c r="E786" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H786" s="65" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I786" s="64" t="s">
-        <v>1203</v>
+      <c r="H786" s="89">
+        <v>43470</v>
+      </c>
+      <c r="I786" s="90">
+        <v>44932</v>
       </c>
       <c r="J786" s="67">
         <v>47</v>
@@ -46339,13 +46222,13 @@
     </row>
     <row r="787" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A787" s="63" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="B787" s="64" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="C787" s="65" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D787" s="66">
         <v>200000</v>
@@ -46353,11 +46236,11 @@
       <c r="E787" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H787" s="65" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I787" s="64" t="s">
-        <v>1204</v>
+      <c r="H787" s="89">
+        <v>43832</v>
+      </c>
+      <c r="I787" s="90">
+        <v>45293</v>
       </c>
       <c r="J787" s="67">
         <v>47</v>
@@ -46389,13 +46272,13 @@
     </row>
     <row r="788" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A788" s="63" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="B788" s="64" t="s">
         <v>409</v>
       </c>
       <c r="C788" s="65" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D788" s="66">
         <v>150000</v>
@@ -46403,11 +46286,11 @@
       <c r="E788" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H788" s="65" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I788" s="64" t="s">
-        <v>1203</v>
+      <c r="H788" s="89">
+        <v>43832</v>
+      </c>
+      <c r="I788" s="90">
+        <v>44932</v>
       </c>
       <c r="J788" s="67">
         <v>39</v>
@@ -46439,13 +46322,13 @@
     </row>
     <row r="789" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A789" s="63" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="B789" s="64" t="s">
         <v>409</v>
       </c>
       <c r="C789" s="65" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D789" s="66">
         <v>150000</v>
@@ -46453,11 +46336,11 @@
       <c r="E789" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H789" s="65" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I789" s="64" t="s">
-        <v>1205</v>
+      <c r="H789" s="89">
+        <v>43832</v>
+      </c>
+      <c r="I789" s="90">
+        <v>45297</v>
       </c>
       <c r="J789" s="67">
         <v>50</v>
@@ -46489,13 +46372,13 @@
     </row>
     <row r="790" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A790" s="63" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="B790" s="64" t="s">
         <v>409</v>
       </c>
       <c r="C790" s="65" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D790" s="66">
         <v>75000</v>
@@ -46503,11 +46386,11 @@
       <c r="E790" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H790" s="65" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I790" s="64" t="s">
-        <v>1203</v>
+      <c r="H790" s="89">
+        <v>43832</v>
+      </c>
+      <c r="I790" s="90">
+        <v>44932</v>
       </c>
       <c r="J790" s="67">
         <v>39</v>
@@ -46539,13 +46422,13 @@
     </row>
     <row r="791" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A791" s="63" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="B791" s="64" t="s">
         <v>409</v>
       </c>
       <c r="C791" s="65" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D791" s="66">
         <v>75000</v>
@@ -46553,11 +46436,11 @@
       <c r="E791" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H791" s="65" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I791" s="64" t="s">
-        <v>1203</v>
+      <c r="H791" s="89">
+        <v>43832</v>
+      </c>
+      <c r="I791" s="90">
+        <v>44932</v>
       </c>
       <c r="J791" s="67">
         <v>39</v>
@@ -46589,13 +46472,13 @@
     </row>
     <row r="792" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A792" s="63" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="B792" s="64" t="s">
         <v>409</v>
       </c>
       <c r="C792" s="65" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D792" s="66">
         <v>40000</v>
@@ -46603,11 +46486,11 @@
       <c r="E792" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H792" s="65" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I792" s="64" t="s">
-        <v>1203</v>
+      <c r="H792" s="89">
+        <v>43832</v>
+      </c>
+      <c r="I792" s="90">
+        <v>44932</v>
       </c>
       <c r="J792" s="67">
         <v>39</v>
@@ -46639,10 +46522,10 @@
     </row>
     <row r="793" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A793" s="63" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="B793" s="64" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="C793" s="65" t="s">
         <v>588</v>
@@ -46653,11 +46536,11 @@
       <c r="E793" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H793" s="65" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I793" s="64" t="s">
-        <v>1206</v>
+      <c r="H793" s="89">
+        <v>43471</v>
+      </c>
+      <c r="I793" s="90">
+        <v>44566</v>
       </c>
       <c r="J793" s="67">
         <v>34</v>
@@ -46689,10 +46572,10 @@
     </row>
     <row r="794" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A794" s="63" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="B794" s="64" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C794" s="65" t="s">
         <v>846</v>
@@ -46703,11 +46586,11 @@
       <c r="E794" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H794" s="65" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I794" s="64" t="s">
-        <v>1207</v>
+      <c r="H794" s="89">
+        <v>43476</v>
+      </c>
+      <c r="I794" s="90">
+        <v>44573</v>
       </c>
       <c r="J794" s="67">
         <v>36</v>
@@ -46739,10 +46622,10 @@
     </row>
     <row r="795" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A795" s="63" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="B795" s="64" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C795" s="65" t="s">
         <v>846</v>
@@ -46753,11 +46636,11 @@
       <c r="E795" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H795" s="65" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I795" s="64" t="s">
-        <v>1207</v>
+      <c r="H795" s="89">
+        <v>43476</v>
+      </c>
+      <c r="I795" s="90">
+        <v>44573</v>
       </c>
       <c r="J795" s="67">
         <v>36</v>
@@ -46789,10 +46672,10 @@
     </row>
     <row r="796" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A796" s="63" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="B796" s="64" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="C796" s="65" t="s">
         <v>696</v>
@@ -46803,11 +46686,11 @@
       <c r="E796" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H796" s="65" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I796" s="64" t="s">
-        <v>1203</v>
+      <c r="H796" s="89">
+        <v>43470</v>
+      </c>
+      <c r="I796" s="90">
+        <v>44932</v>
       </c>
       <c r="J796" s="67">
         <v>48</v>
@@ -46839,7 +46722,7 @@
     </row>
     <row r="797" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A797" s="63" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="B797" s="64" t="s">
         <v>244</v>
@@ -46853,11 +46736,11 @@
       <c r="E797" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H797" s="65" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I797" s="64" t="s">
-        <v>1208</v>
+      <c r="H797" s="89">
+        <v>43469</v>
+      </c>
+      <c r="I797" s="90">
+        <v>45660</v>
       </c>
       <c r="J797" s="67">
         <v>69</v>
@@ -46889,7 +46772,7 @@
     </row>
     <row r="798" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A798" s="63" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="B798" s="64" t="s">
         <v>244</v>
@@ -46903,11 +46786,11 @@
       <c r="E798" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H798" s="65" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I798" s="64" t="s">
-        <v>1208</v>
+      <c r="H798" s="89">
+        <v>43469</v>
+      </c>
+      <c r="I798" s="90">
+        <v>45660</v>
       </c>
       <c r="J798" s="67">
         <v>69</v>
@@ -46939,7 +46822,7 @@
     </row>
     <row r="799" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A799" s="63" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="B799" s="64" t="s">
         <v>244</v>
@@ -46954,10 +46837,10 @@
         <v>520</v>
       </c>
       <c r="H799" s="65" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I799" s="64" t="s">
-        <v>1200</v>
+        <v>1273</v>
+      </c>
+      <c r="I799" s="90">
+        <v>44928</v>
       </c>
       <c r="J799" s="67">
         <v>36</v>
@@ -46989,7 +46872,7 @@
     </row>
     <row r="800" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A800" s="63" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="B800" s="64" t="s">
         <v>244</v>
@@ -47003,11 +46886,11 @@
       <c r="E800" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H800" s="65" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I800" s="64" t="s">
-        <v>1200</v>
+      <c r="H800" s="89">
+        <v>43832</v>
+      </c>
+      <c r="I800" s="90">
+        <v>44928</v>
       </c>
       <c r="J800" s="67">
         <v>36</v>
@@ -47039,13 +46922,13 @@
     </row>
     <row r="801" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A801" s="63" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="B801" s="64" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C801" s="65" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D801" s="66">
         <v>75000</v>
@@ -47053,11 +46936,11 @@
       <c r="E801" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H801" s="65" t="s">
-        <v>899</v>
-      </c>
-      <c r="I801" s="64" t="s">
-        <v>1209</v>
+      <c r="H801" s="89">
+        <v>43477</v>
+      </c>
+      <c r="I801" s="90">
+        <v>45292</v>
       </c>
       <c r="J801" s="67">
         <v>48</v>
@@ -47089,13 +46972,13 @@
     </row>
     <row r="802" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A802" s="63" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="B802" s="64" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C802" s="65" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D802" s="66">
         <v>250000</v>
@@ -47103,11 +46986,11 @@
       <c r="E802" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H802" s="65" t="s">
-        <v>899</v>
-      </c>
-      <c r="I802" s="64" t="s">
-        <v>1209</v>
+      <c r="H802" s="89">
+        <v>43477</v>
+      </c>
+      <c r="I802" s="90">
+        <v>45292</v>
       </c>
       <c r="J802" s="67">
         <v>48</v>
@@ -47139,13 +47022,13 @@
     </row>
     <row r="803" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A803" s="63" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="B803" s="64" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C803" s="65" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D803" s="66">
         <v>150000</v>
@@ -47153,11 +47036,11 @@
       <c r="E803" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H803" s="65" t="s">
-        <v>899</v>
-      </c>
-      <c r="I803" s="64" t="s">
-        <v>1209</v>
+      <c r="H803" s="89">
+        <v>43477</v>
+      </c>
+      <c r="I803" s="90">
+        <v>45292</v>
       </c>
       <c r="J803" s="67">
         <v>48</v>
@@ -47189,13 +47072,13 @@
     </row>
     <row r="804" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A804" s="63" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="B804" s="64" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C804" s="65" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="D804" s="66">
         <v>133224</v>
@@ -47203,11 +47086,11 @@
       <c r="E804" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H804" s="65" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I804" s="64" t="s">
-        <v>1209</v>
+      <c r="H804" s="89">
+        <v>43476</v>
+      </c>
+      <c r="I804" s="90">
+        <v>45292</v>
       </c>
       <c r="J804" s="67">
         <v>49</v>
@@ -47239,13 +47122,13 @@
     </row>
     <row r="805" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A805" s="63" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="B805" s="64" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C805" s="65" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="D805" s="66">
         <v>175000</v>
@@ -47253,11 +47136,11 @@
       <c r="E805" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H805" s="65" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I805" s="64" t="s">
-        <v>1210</v>
+      <c r="H805" s="89">
+        <v>43833</v>
+      </c>
+      <c r="I805" s="90">
+        <v>45294</v>
       </c>
       <c r="J805" s="67">
         <v>47</v>
@@ -47289,13 +47172,13 @@
     </row>
     <row r="806" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A806" s="63" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="B806" s="64" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C806" s="65" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="D806" s="66">
         <v>60000</v>
@@ -47303,11 +47186,11 @@
       <c r="E806" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H806" s="65" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I806" s="64" t="s">
-        <v>1210</v>
+      <c r="H806" s="89">
+        <v>43833</v>
+      </c>
+      <c r="I806" s="90">
+        <v>45294</v>
       </c>
       <c r="J806" s="67">
         <v>47</v>
@@ -47339,13 +47222,13 @@
     </row>
     <row r="807" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A807" s="63" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="B807" s="64" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C807" s="65" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="D807" s="66">
         <v>125000</v>
@@ -47353,11 +47236,11 @@
       <c r="E807" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H807" s="65" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I807" s="64" t="s">
-        <v>1210</v>
+      <c r="H807" s="89">
+        <v>43833</v>
+      </c>
+      <c r="I807" s="90">
+        <v>45294</v>
       </c>
       <c r="J807" s="67">
         <v>47</v>
@@ -47389,13 +47272,13 @@
     </row>
     <row r="808" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A808" s="63" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="B808" s="64" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C808" s="65" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="D808" s="66">
         <v>125000</v>
@@ -47403,11 +47286,11 @@
       <c r="E808" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H808" s="65" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I808" s="64" t="s">
-        <v>1210</v>
+      <c r="H808" s="89">
+        <v>43833</v>
+      </c>
+      <c r="I808" s="90">
+        <v>45294</v>
       </c>
       <c r="J808" s="67">
         <v>47</v>
@@ -47439,7 +47322,7 @@
     </row>
     <row r="809" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A809" s="63" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="B809" s="64" t="s">
         <v>244</v>
@@ -47453,11 +47336,11 @@
       <c r="E809" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H809" s="65" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I809" s="64" t="s">
-        <v>1203</v>
+      <c r="H809" s="89">
+        <v>43470</v>
+      </c>
+      <c r="I809" s="90">
+        <v>44932</v>
       </c>
       <c r="J809" s="67">
         <v>48</v>
@@ -47489,7 +47372,7 @@
     </row>
     <row r="810" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A810" s="63" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="B810" s="64" t="s">
         <v>244</v>
@@ -47503,11 +47386,11 @@
       <c r="E810" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H810" s="65" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I810" s="64" t="s">
-        <v>1211</v>
+      <c r="H810" s="89">
+        <v>43833</v>
+      </c>
+      <c r="I810" s="90">
+        <v>44930</v>
       </c>
       <c r="J810" s="67">
         <v>36</v>
@@ -47539,13 +47422,13 @@
     </row>
     <row r="811" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A811" s="63" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="B811" s="64" t="s">
         <v>800</v>
       </c>
       <c r="C811" s="65" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="D811" s="66">
         <v>150000</v>
@@ -47553,11 +47436,11 @@
       <c r="E811" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H811" s="65" t="s">
-        <v>899</v>
-      </c>
-      <c r="I811" s="64" t="s">
-        <v>1212</v>
+      <c r="H811" s="89">
+        <v>43477</v>
+      </c>
+      <c r="I811" s="90">
+        <v>44938</v>
       </c>
       <c r="J811" s="67">
         <v>47</v>
@@ -47589,13 +47472,13 @@
     </row>
     <row r="812" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A812" s="63" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="B812" s="64" t="s">
         <v>800</v>
       </c>
       <c r="C812" s="65" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="D812" s="66">
         <v>275000</v>
@@ -47603,11 +47486,11 @@
       <c r="E812" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H812" s="65" t="s">
-        <v>899</v>
-      </c>
-      <c r="I812" s="64" t="s">
-        <v>1212</v>
+      <c r="H812" s="89">
+        <v>43477</v>
+      </c>
+      <c r="I812" s="90">
+        <v>44938</v>
       </c>
       <c r="J812" s="67">
         <v>47</v>
@@ -47639,13 +47522,13 @@
     </row>
     <row r="813" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A813" s="63" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="B813" s="64" t="s">
         <v>800</v>
       </c>
       <c r="C813" s="65" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="D813" s="66">
         <v>150000</v>
@@ -47653,11 +47536,11 @@
       <c r="E813" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="H813" s="65" t="s">
-        <v>899</v>
-      </c>
-      <c r="I813" s="64" t="s">
-        <v>1213</v>
+      <c r="H813" s="89">
+        <v>43477</v>
+      </c>
+      <c r="I813" s="90">
+        <v>45303</v>
       </c>
       <c r="J813" s="67">
         <v>59</v>
@@ -47689,13 +47572,13 @@
     </row>
     <row r="814" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A814" s="69" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="B814" s="69" t="s">
         <v>800</v>
       </c>
       <c r="C814" s="70" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="D814" s="71">
         <v>275000</v>
@@ -47705,11 +47588,11 @@
       </c>
       <c r="F814" s="72"/>
       <c r="G814" s="72"/>
-      <c r="H814" s="70" t="s">
-        <v>899</v>
-      </c>
-      <c r="I814" s="69" t="s">
-        <v>1213</v>
+      <c r="H814" s="91">
+        <v>43477</v>
+      </c>
+      <c r="I814" s="92">
+        <v>45303</v>
       </c>
       <c r="J814" s="73">
         <v>59</v>
@@ -47741,13 +47624,13 @@
     </row>
     <row r="815" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A815" s="69" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="B815" s="69" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="C815" s="70" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D815" s="71">
         <v>20000</v>
@@ -47757,11 +47640,11 @@
       </c>
       <c r="F815" s="72"/>
       <c r="G815" s="72"/>
-      <c r="H815" s="70" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I815" s="69" t="s">
-        <v>1202</v>
+      <c r="H815" s="91">
+        <v>43470</v>
+      </c>
+      <c r="I815" s="92">
+        <v>44567</v>
       </c>
       <c r="J815" s="73">
         <v>36</v>
@@ -47793,13 +47676,13 @@
     </row>
     <row r="816" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A816" s="69" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="B816" s="69" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="C816" s="70" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D816" s="71">
         <v>20000</v>
@@ -47809,11 +47692,11 @@
       </c>
       <c r="F816" s="72"/>
       <c r="G816" s="72"/>
-      <c r="H816" s="70" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I816" s="69" t="s">
-        <v>1202</v>
+      <c r="H816" s="91">
+        <v>43470</v>
+      </c>
+      <c r="I816" s="92">
+        <v>44567</v>
       </c>
       <c r="J816" s="73">
         <v>36</v>
@@ -47845,7 +47728,7 @@
     </row>
     <row r="817" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A817" s="69" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="B817" s="69" t="s">
         <v>109</v>
@@ -47861,11 +47744,11 @@
       </c>
       <c r="F817" s="72"/>
       <c r="G817" s="72"/>
-      <c r="H817" s="70" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I817" s="69" t="s">
-        <v>937</v>
+      <c r="H817" s="91">
+        <v>43471</v>
+      </c>
+      <c r="I817" s="92">
+        <v>43842</v>
       </c>
       <c r="J817" s="73">
         <v>17</v>
@@ -47897,7 +47780,7 @@
     </row>
     <row r="818" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A818" s="69" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="B818" s="69" t="s">
         <v>109</v>
@@ -47913,11 +47796,11 @@
       </c>
       <c r="F818" s="72"/>
       <c r="G818" s="72"/>
-      <c r="H818" s="70" t="s">
-        <v>912</v>
-      </c>
-      <c r="I818" s="69" t="s">
-        <v>941</v>
+      <c r="H818" s="91">
+        <v>43831</v>
+      </c>
+      <c r="I818" s="92">
+        <v>44208</v>
       </c>
       <c r="J818" s="73">
         <v>23</v>
@@ -47949,7 +47832,7 @@
     </row>
     <row r="819" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A819" s="69" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="B819" s="69" t="s">
         <v>109</v>
@@ -47965,11 +47848,11 @@
       </c>
       <c r="F819" s="72"/>
       <c r="G819" s="72"/>
-      <c r="H819" s="70" t="s">
-        <v>912</v>
-      </c>
-      <c r="I819" s="69" t="s">
-        <v>941</v>
+      <c r="H819" s="91">
+        <v>43831</v>
+      </c>
+      <c r="I819" s="92">
+        <v>44208</v>
       </c>
       <c r="J819" s="73">
         <v>23</v>
@@ -48001,7 +47884,7 @@
     </row>
     <row r="820" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A820" s="69" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="B820" s="69" t="s">
         <v>109</v>
@@ -48017,11 +47900,11 @@
       </c>
       <c r="F820" s="72"/>
       <c r="G820" s="72"/>
-      <c r="H820" s="70" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I820" s="69" t="s">
-        <v>1209</v>
+      <c r="H820" s="91">
+        <v>43832</v>
+      </c>
+      <c r="I820" s="92">
+        <v>45292</v>
       </c>
       <c r="J820" s="73">
         <v>46</v>
@@ -48053,7 +47936,7 @@
     </row>
     <row r="821" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A821" s="69" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="B821" s="69" t="s">
         <v>109</v>
@@ -48069,11 +47952,11 @@
       </c>
       <c r="F821" s="72"/>
       <c r="G821" s="72"/>
-      <c r="H821" s="70" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I821" s="69" t="s">
-        <v>941</v>
+      <c r="H821" s="91">
+        <v>43832</v>
+      </c>
+      <c r="I821" s="92">
+        <v>44208</v>
       </c>
       <c r="J821" s="73">
         <v>22</v>
@@ -48105,7 +47988,7 @@
     </row>
     <row r="822" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A822" s="69" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="B822" s="69" t="s">
         <v>348</v>
@@ -48119,11 +48002,11 @@
       </c>
       <c r="F822" s="72"/>
       <c r="G822" s="72"/>
-      <c r="H822" s="70" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I822" s="69" t="s">
-        <v>1214</v>
+      <c r="H822" s="91">
+        <v>43469</v>
+      </c>
+      <c r="I822" s="92">
+        <v>44565</v>
       </c>
       <c r="J822" s="73">
         <v>35</v>
@@ -48153,13 +48036,13 @@
     </row>
     <row r="823" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A823" s="69" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B823" s="69" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C823" s="70" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="D823" s="71">
         <v>250000</v>
@@ -48169,11 +48052,11 @@
       </c>
       <c r="F823" s="72"/>
       <c r="G823" s="72"/>
-      <c r="H823" s="70" t="s">
-        <v>912</v>
-      </c>
-      <c r="I823" s="69" t="s">
-        <v>1215</v>
+      <c r="H823" s="91">
+        <v>43831</v>
+      </c>
+      <c r="I823" s="92">
+        <v>44927</v>
       </c>
       <c r="J823" s="73">
         <v>35</v>
@@ -48205,13 +48088,13 @@
     </row>
     <row r="824" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A824" s="69" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B824" s="69" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C824" s="70" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="D824" s="71">
         <v>150000</v>
@@ -48221,11 +48104,11 @@
       </c>
       <c r="F824" s="72"/>
       <c r="G824" s="72"/>
-      <c r="H824" s="70" t="s">
-        <v>912</v>
-      </c>
-      <c r="I824" s="69" t="s">
-        <v>1215</v>
+      <c r="H824" s="91">
+        <v>43831</v>
+      </c>
+      <c r="I824" s="92">
+        <v>44927</v>
       </c>
       <c r="J824" s="73">
         <v>35</v>
@@ -48257,13 +48140,13 @@
     </row>
     <row r="825" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A825" s="69" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B825" s="69" t="s">
         <v>719</v>
       </c>
       <c r="C825" s="70" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="D825" s="71">
         <v>200000</v>
@@ -48273,11 +48156,11 @@
       </c>
       <c r="F825" s="72"/>
       <c r="G825" s="72"/>
-      <c r="H825" s="70" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I825" s="69" t="s">
-        <v>1216</v>
+      <c r="H825" s="91">
+        <v>43832</v>
+      </c>
+      <c r="I825" s="92">
+        <v>45658</v>
       </c>
       <c r="J825" s="73">
         <v>58</v>
@@ -48309,10 +48192,10 @@
     </row>
     <row r="826" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A826" s="69" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B826" s="69" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C826" s="70" t="s">
         <v>588</v>
@@ -48325,11 +48208,11 @@
       </c>
       <c r="F826" s="72"/>
       <c r="G826" s="72"/>
-      <c r="H826" s="70" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I826" s="69" t="s">
-        <v>1217</v>
+      <c r="H826" s="91">
+        <v>43471</v>
+      </c>
+      <c r="I826" s="92">
+        <v>44933</v>
       </c>
       <c r="J826" s="73">
         <v>47</v>
@@ -48361,13 +48244,13 @@
     </row>
     <row r="827" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A827" s="69" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B827" s="69" t="s">
         <v>35</v>
       </c>
       <c r="C827" s="70" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D827" s="71">
         <v>60000</v>
@@ -48377,11 +48260,11 @@
       </c>
       <c r="F827" s="72"/>
       <c r="G827" s="72"/>
-      <c r="H827" s="70" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I827" s="69" t="s">
-        <v>1203</v>
+      <c r="H827" s="91">
+        <v>43470</v>
+      </c>
+      <c r="I827" s="92">
+        <v>44932</v>
       </c>
       <c r="J827" s="73">
         <v>48</v>
@@ -48413,13 +48296,13 @@
     </row>
     <row r="828" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A828" s="69" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B828" s="69" t="s">
         <v>35</v>
       </c>
       <c r="C828" s="70" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D828" s="71">
         <v>75000</v>
@@ -48429,11 +48312,11 @@
       </c>
       <c r="F828" s="72"/>
       <c r="G828" s="72"/>
-      <c r="H828" s="70" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I828" s="69" t="s">
-        <v>1203</v>
+      <c r="H828" s="91">
+        <v>43470</v>
+      </c>
+      <c r="I828" s="92">
+        <v>44932</v>
       </c>
       <c r="J828" s="73">
         <v>48</v>
@@ -48465,13 +48348,13 @@
     </row>
     <row r="829" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A829" s="69" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B829" s="69" t="s">
         <v>35</v>
       </c>
       <c r="C829" s="70" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D829" s="71">
         <v>50000</v>
@@ -48481,11 +48364,11 @@
       </c>
       <c r="F829" s="72"/>
       <c r="G829" s="72"/>
-      <c r="H829" s="70" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I829" s="69" t="s">
-        <v>937</v>
+      <c r="H829" s="91">
+        <v>43476</v>
+      </c>
+      <c r="I829" s="92">
+        <v>43842</v>
       </c>
       <c r="J829" s="73">
         <v>12</v>
@@ -48517,13 +48400,13 @@
     </row>
     <row r="830" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A830" s="69" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B830" s="69" t="s">
         <v>35</v>
       </c>
       <c r="C830" s="70" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D830" s="71">
         <v>110000</v>
@@ -48533,11 +48416,11 @@
       </c>
       <c r="F830" s="72"/>
       <c r="G830" s="72"/>
-      <c r="H830" s="70" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I830" s="69" t="s">
-        <v>1212</v>
+      <c r="H830" s="91">
+        <v>43476</v>
+      </c>
+      <c r="I830" s="92">
+        <v>44938</v>
       </c>
       <c r="J830" s="73">
         <v>48</v>
@@ -48569,13 +48452,13 @@
     </row>
     <row r="831" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A831" s="69" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B831" s="69" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C831" s="70" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D831" s="71">
         <v>150000</v>
@@ -48585,11 +48468,11 @@
       </c>
       <c r="F831" s="72"/>
       <c r="G831" s="72"/>
-      <c r="H831" s="70" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I831" s="69" t="s">
-        <v>1201</v>
+      <c r="H831" s="91">
+        <v>43833</v>
+      </c>
+      <c r="I831" s="92">
+        <v>45295</v>
       </c>
       <c r="J831" s="73">
         <v>48</v>
@@ -48621,13 +48504,13 @@
     </row>
     <row r="832" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A832" s="69" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B832" s="69" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C832" s="70" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D832" s="71">
         <v>100000</v>
@@ -48637,11 +48520,11 @@
       </c>
       <c r="F832" s="72"/>
       <c r="G832" s="72"/>
-      <c r="H832" s="70" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I832" s="69" t="s">
-        <v>1201</v>
+      <c r="H832" s="91">
+        <v>43833</v>
+      </c>
+      <c r="I832" s="92">
+        <v>45295</v>
       </c>
       <c r="J832" s="73">
         <v>48</v>
@@ -48673,13 +48556,13 @@
     </row>
     <row r="833" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A833" s="69" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B833" s="69" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C833" s="70" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D833" s="71">
         <v>150000</v>
@@ -48689,11 +48572,11 @@
       </c>
       <c r="F833" s="72"/>
       <c r="G833" s="72"/>
-      <c r="H833" s="70" t="s">
-        <v>912</v>
-      </c>
-      <c r="I833" s="69" t="s">
-        <v>1207</v>
+      <c r="H833" s="91">
+        <v>43831</v>
+      </c>
+      <c r="I833" s="92">
+        <v>44573</v>
       </c>
       <c r="J833" s="73">
         <v>35</v>
@@ -48725,13 +48608,13 @@
     </row>
     <row r="834" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A834" s="69" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B834" s="69" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C834" s="70" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D834" s="71">
         <v>75000</v>
@@ -48741,11 +48624,11 @@
       </c>
       <c r="F834" s="72"/>
       <c r="G834" s="72"/>
-      <c r="H834" s="70" t="s">
-        <v>912</v>
-      </c>
-      <c r="I834" s="69" t="s">
-        <v>1207</v>
+      <c r="H834" s="91">
+        <v>43831</v>
+      </c>
+      <c r="I834" s="92">
+        <v>44573</v>
       </c>
       <c r="J834" s="73">
         <v>35</v>
@@ -48777,10 +48660,10 @@
     </row>
     <row r="835" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A835" s="69" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B835" s="69" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="C835" s="70" t="s">
         <v>592</v>
@@ -48793,11 +48676,11 @@
       </c>
       <c r="F835" s="72"/>
       <c r="G835" s="72"/>
-      <c r="H835" s="70" t="s">
-        <v>912</v>
-      </c>
-      <c r="I835" s="69" t="s">
-        <v>1218</v>
+      <c r="H835" s="91">
+        <v>43831</v>
+      </c>
+      <c r="I835" s="92">
+        <v>44929</v>
       </c>
       <c r="J835" s="73">
         <v>37</v>
@@ -48829,13 +48712,13 @@
     </row>
     <row r="836" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A836" s="69" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B836" s="69" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C836" s="70" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="D836" s="71">
         <v>400000</v>
@@ -48845,11 +48728,11 @@
       </c>
       <c r="F836" s="72"/>
       <c r="G836" s="72"/>
-      <c r="H836" s="70" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I836" s="69" t="s">
-        <v>1207</v>
+      <c r="H836" s="91">
+        <v>43476</v>
+      </c>
+      <c r="I836" s="92">
+        <v>44573</v>
       </c>
       <c r="J836" s="73">
         <v>36</v>
@@ -48881,10 +48764,10 @@
     </row>
     <row r="837" spans="1:18" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="80" t="s">
-        <v>1261</v>
+        <v>1230</v>
       </c>
       <c r="B837" s="78" t="s">
-        <v>1219</v>
+        <v>1188</v>
       </c>
       <c r="C837" s="78" t="s">
         <v>588</v>
@@ -48895,47 +48778,47 @@
       <c r="E837" s="78" t="s">
         <v>520</v>
       </c>
-      <c r="H837" s="83" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I837" s="83" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J837" s="84">
+      <c r="H837" s="93">
+        <v>43841</v>
+      </c>
+      <c r="I837" s="93">
+        <v>45292</v>
+      </c>
+      <c r="J837" s="83">
         <v>37</v>
       </c>
-      <c r="K837" s="84">
+      <c r="K837" s="83">
         <v>37</v>
       </c>
-      <c r="L837" s="86">
+      <c r="L837" s="85">
         <v>0.12</v>
       </c>
-      <c r="M837" s="86">
+      <c r="M837" s="85">
         <v>0.1217</v>
       </c>
-      <c r="N837" s="86">
+      <c r="N837" s="85">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="O837" s="87">
+      <c r="O837" s="86">
         <v>8.72E-2</v>
       </c>
       <c r="P837" s="77"/>
-      <c r="Q837" s="85">
+      <c r="Q837" s="84">
         <v>679</v>
       </c>
-      <c r="R837" s="88">
+      <c r="R837" s="87">
         <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="838" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A838" s="79" t="s">
-        <v>1220</v>
+        <v>1189</v>
       </c>
       <c r="B838" s="79" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="C838" s="79" t="s">
-        <v>1221</v>
+        <v>1190</v>
       </c>
       <c r="D838" s="82">
         <v>400</v>
@@ -48943,43 +48826,43 @@
       <c r="E838" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H838" s="83" t="s">
-        <v>931</v>
-      </c>
-      <c r="I838" s="83" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J838" s="85">
+      <c r="H838" s="93">
+        <v>43836</v>
+      </c>
+      <c r="I838" s="93">
+        <v>44932</v>
+      </c>
+      <c r="J838" s="84">
         <v>35</v>
       </c>
-      <c r="K838" s="85">
+      <c r="K838" s="84">
         <v>35</v>
       </c>
-      <c r="L838" s="86">
+      <c r="L838" s="85">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="M838" s="86">
+      <c r="M838" s="85">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="N838" s="86">
+      <c r="N838" s="85">
         <v>1.78E-2</v>
       </c>
-      <c r="O838" s="87">
+      <c r="O838" s="86">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="P838" s="86">
+      <c r="P838" s="85">
         <v>1.18E-2</v>
       </c>
-      <c r="Q838" s="85">
+      <c r="Q838" s="84">
         <v>405</v>
       </c>
-      <c r="R838" s="88">
+      <c r="R838" s="87">
         <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="839" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A839" s="79" t="s">
-        <v>1222</v>
+        <v>1191</v>
       </c>
       <c r="B839" s="79" t="s">
         <v>49</v>
@@ -48993,49 +48876,49 @@
       <c r="E839" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H839" s="83" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I839" s="83" t="s">
-        <v>1205</v>
-      </c>
-      <c r="J839" s="85">
+      <c r="H839" s="93">
+        <v>43834</v>
+      </c>
+      <c r="I839" s="93">
+        <v>45297</v>
+      </c>
+      <c r="J839" s="84">
         <v>49</v>
       </c>
-      <c r="K839" s="85">
+      <c r="K839" s="84">
         <v>49</v>
       </c>
-      <c r="L839" s="86">
+      <c r="L839" s="85">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="M839" s="86">
+      <c r="M839" s="85">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="N839" s="86">
+      <c r="N839" s="85">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="O839" s="87">
+      <c r="O839" s="86">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="P839" s="86">
+      <c r="P839" s="85">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="Q839" s="85">
+      <c r="Q839" s="84">
         <v>552</v>
       </c>
-      <c r="R839" s="88">
+      <c r="R839" s="87">
         <v>0.83499999999999996</v>
       </c>
     </row>
     <row r="840" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A840" s="79" t="s">
-        <v>1223</v>
+        <v>1192</v>
       </c>
       <c r="B840" s="79" t="s">
-        <v>1224</v>
+        <v>1193</v>
       </c>
       <c r="C840" s="79" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D840" s="82">
         <v>112.9</v>
@@ -49043,43 +48926,43 @@
       <c r="E840" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H840" s="83" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I840" s="83" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J840" s="85">
+      <c r="H840" s="93">
+        <v>43837</v>
+      </c>
+      <c r="I840" s="93">
+        <v>45292</v>
+      </c>
+      <c r="J840" s="84">
         <v>41</v>
       </c>
-      <c r="K840" s="85">
+      <c r="K840" s="84">
         <v>41</v>
       </c>
-      <c r="L840" s="86">
+      <c r="L840" s="85">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M840" s="86">
+      <c r="M840" s="85">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="N840" s="86">
+      <c r="N840" s="85">
         <v>2.64E-2</v>
       </c>
-      <c r="O840" s="87">
+      <c r="O840" s="86">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="P840" s="86">
+      <c r="P840" s="85">
         <v>1.84E-2</v>
       </c>
-      <c r="Q840" s="85">
+      <c r="Q840" s="84">
         <v>192</v>
       </c>
-      <c r="R840" s="88">
+      <c r="R840" s="87">
         <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="841" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A841" s="79" t="s">
-        <v>1225</v>
+        <v>1194</v>
       </c>
       <c r="B841" s="79" t="s">
         <v>310</v>
@@ -49093,43 +48976,43 @@
       <c r="E841" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H841" s="83" t="s">
-        <v>931</v>
-      </c>
-      <c r="I841" s="83" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J841" s="85">
+      <c r="H841" s="93">
+        <v>43836</v>
+      </c>
+      <c r="I841" s="93">
+        <v>44932</v>
+      </c>
+      <c r="J841" s="84">
         <v>35</v>
       </c>
-      <c r="K841" s="85">
+      <c r="K841" s="84">
         <v>35</v>
       </c>
-      <c r="L841" s="86">
+      <c r="L841" s="85">
         <v>0.13250000000000001</v>
       </c>
-      <c r="M841" s="86">
+      <c r="M841" s="85">
         <v>0.1343</v>
       </c>
-      <c r="N841" s="86">
+      <c r="N841" s="85">
         <v>4.41E-2</v>
       </c>
-      <c r="O841" s="87">
+      <c r="O841" s="86">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="P841" s="86">
+      <c r="P841" s="85">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="Q841" s="85">
+      <c r="Q841" s="84">
         <v>902</v>
       </c>
-      <c r="R841" s="88">
+      <c r="R841" s="87">
         <v>0.88900000000000001</v>
       </c>
     </row>
     <row r="842" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A842" s="79" t="s">
-        <v>1226</v>
+        <v>1195</v>
       </c>
       <c r="B842" s="79" t="s">
         <v>310</v>
@@ -49143,49 +49026,49 @@
       <c r="E842" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H842" s="83" t="s">
-        <v>931</v>
-      </c>
-      <c r="I842" s="83" t="s">
-        <v>1265</v>
-      </c>
-      <c r="J842" s="85">
+      <c r="H842" s="93">
+        <v>43836</v>
+      </c>
+      <c r="I842" s="93">
+        <v>44202</v>
+      </c>
+      <c r="J842" s="84">
         <v>12</v>
       </c>
-      <c r="K842" s="85">
+      <c r="K842" s="84">
         <v>12</v>
       </c>
-      <c r="L842" s="86">
+      <c r="L842" s="85">
         <v>0.16</v>
       </c>
-      <c r="M842" s="86">
+      <c r="M842" s="85">
         <v>0.16220000000000001</v>
       </c>
-      <c r="N842" s="86">
+      <c r="N842" s="85">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="O842" s="87">
+      <c r="O842" s="86">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="P842" s="86">
+      <c r="P842" s="85">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="Q842" s="85">
+      <c r="Q842" s="84">
         <v>1067</v>
       </c>
-      <c r="R842" s="88">
+      <c r="R842" s="87">
         <v>0.754</v>
       </c>
     </row>
     <row r="843" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A843" s="79" t="s">
-        <v>1227</v>
+        <v>1196</v>
       </c>
       <c r="B843" s="79" t="s">
-        <v>1228</v>
+        <v>1197</v>
       </c>
       <c r="C843" s="79" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D843" s="82">
         <v>200</v>
@@ -49193,47 +49076,47 @@
       <c r="E843" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H843" s="83" t="s">
-        <v>937</v>
-      </c>
-      <c r="I843" s="83" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J843" s="85">
+      <c r="H843" s="93">
+        <v>43842</v>
+      </c>
+      <c r="I843" s="93">
+        <v>45303</v>
+      </c>
+      <c r="J843" s="84">
         <v>47</v>
       </c>
-      <c r="K843" s="85">
+      <c r="K843" s="84">
         <v>47</v>
       </c>
-      <c r="L843" s="86">
+      <c r="L843" s="85">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="M843" s="86">
+      <c r="M843" s="85">
         <v>4.82E-2</v>
       </c>
-      <c r="N843" s="86">
+      <c r="N843" s="85">
         <v>1.04E-2</v>
       </c>
-      <c r="O843" s="87">
+      <c r="O843" s="86">
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="P843" s="77"/>
-      <c r="Q843" s="85">
+      <c r="Q843" s="84">
         <v>378</v>
       </c>
-      <c r="R843" s="88">
+      <c r="R843" s="87">
         <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="844" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A844" s="79" t="s">
-        <v>1229</v>
+        <v>1198</v>
       </c>
       <c r="B844" s="79" t="s">
-        <v>1228</v>
+        <v>1197</v>
       </c>
       <c r="C844" s="79" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D844" s="82">
         <v>95</v>
@@ -49241,44 +49124,44 @@
       <c r="E844" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H844" s="83" t="s">
-        <v>937</v>
-      </c>
-      <c r="I844" s="83" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J844" s="85">
+      <c r="H844" s="93">
+        <v>43842</v>
+      </c>
+      <c r="I844" s="93">
+        <v>44562</v>
+      </c>
+      <c r="J844" s="84">
         <v>12</v>
       </c>
-      <c r="K844" s="85">
+      <c r="K844" s="84">
         <v>12</v>
       </c>
-      <c r="L844" s="86">
+      <c r="L844" s="85">
         <v>0.12</v>
       </c>
-      <c r="M844" s="86">
+      <c r="M844" s="85">
         <v>0.1217</v>
       </c>
-      <c r="N844" s="86">
+      <c r="N844" s="85">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O844" s="87">
+      <c r="O844" s="86">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="P844" s="77"/>
-      <c r="Q844" s="85">
+      <c r="Q844" s="84">
         <v>1181</v>
       </c>
-      <c r="R844" s="88">
+      <c r="R844" s="87">
         <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="845" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A845" s="79" t="s">
-        <v>1230</v>
+        <v>1199</v>
       </c>
       <c r="B845" s="79" t="s">
-        <v>1231</v>
+        <v>1200</v>
       </c>
       <c r="C845" s="79" t="s">
         <v>588</v>
@@ -49289,47 +49172,47 @@
       <c r="E845" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H845" s="83" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I845" s="83" t="s">
-        <v>1210</v>
-      </c>
-      <c r="J845" s="85">
-        <v>36</v>
-      </c>
-      <c r="K845" s="85">
-        <v>36</v>
-      </c>
-      <c r="L845" s="86">
+      <c r="H845" s="93">
+        <v>44199</v>
+      </c>
+      <c r="I845" s="93">
+        <v>45294</v>
+      </c>
+      <c r="J845" s="84">
+        <v>36</v>
+      </c>
+      <c r="K845" s="84">
+        <v>36</v>
+      </c>
+      <c r="L845" s="85">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="M845" s="86">
+      <c r="M845" s="85">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="N845" s="86">
+      <c r="N845" s="85">
         <v>1.04E-2</v>
       </c>
-      <c r="O845" s="87">
+      <c r="O845" s="86">
         <v>1.21E-2</v>
       </c>
       <c r="P845" s="77"/>
-      <c r="Q845" s="85">
+      <c r="Q845" s="84">
         <v>226</v>
       </c>
-      <c r="R845" s="88">
+      <c r="R845" s="87">
         <v>0.86</v>
       </c>
     </row>
     <row r="846" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A846" s="79" t="s">
-        <v>1232</v>
+        <v>1201</v>
       </c>
       <c r="B846" s="79" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C846" s="79" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D846" s="82">
         <v>40</v>
@@ -49337,49 +49220,49 @@
       <c r="E846" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H846" s="83" t="s">
-        <v>931</v>
-      </c>
-      <c r="I846" s="83" t="s">
-        <v>1265</v>
-      </c>
-      <c r="J846" s="85">
+      <c r="H846" s="93">
+        <v>43836</v>
+      </c>
+      <c r="I846" s="93">
+        <v>44202</v>
+      </c>
+      <c r="J846" s="84">
         <v>12</v>
       </c>
-      <c r="K846" s="85">
+      <c r="K846" s="84">
         <v>12</v>
       </c>
-      <c r="L846" s="86">
+      <c r="L846" s="85">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="M846" s="86">
+      <c r="M846" s="85">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="N846" s="86">
+      <c r="N846" s="85">
         <v>1.12E-2</v>
       </c>
-      <c r="O846" s="87">
+      <c r="O846" s="86">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="P846" s="86">
+      <c r="P846" s="85">
         <v>1.01E-2</v>
       </c>
-      <c r="Q846" s="85">
+      <c r="Q846" s="84">
         <v>724</v>
       </c>
-      <c r="R846" s="88">
+      <c r="R846" s="87">
         <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="847" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A847" s="79" t="s">
-        <v>1233</v>
+        <v>1202</v>
       </c>
       <c r="B847" s="79" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C847" s="79" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D847" s="82">
         <v>25</v>
@@ -49387,46 +49270,46 @@
       <c r="E847" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H847" s="83" t="s">
-        <v>931</v>
-      </c>
-      <c r="I847" s="83" t="s">
-        <v>1265</v>
-      </c>
-      <c r="J847" s="85">
+      <c r="H847" s="93">
+        <v>43836</v>
+      </c>
+      <c r="I847" s="93">
+        <v>44202</v>
+      </c>
+      <c r="J847" s="84">
         <v>12</v>
       </c>
-      <c r="K847" s="85">
+      <c r="K847" s="84">
         <v>12</v>
       </c>
-      <c r="L847" s="86">
+      <c r="L847" s="85">
         <v>0.125</v>
       </c>
-      <c r="M847" s="86">
+      <c r="M847" s="85">
         <v>0.12670000000000001</v>
       </c>
-      <c r="N847" s="86">
+      <c r="N847" s="85">
         <v>2.35E-2</v>
       </c>
-      <c r="O847" s="87">
+      <c r="O847" s="86">
         <v>5.04E-2</v>
       </c>
-      <c r="P847" s="86">
+      <c r="P847" s="85">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="Q847" s="85">
+      <c r="Q847" s="84">
         <v>1032</v>
       </c>
-      <c r="R847" s="88">
+      <c r="R847" s="87">
         <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="848" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A848" s="79" t="s">
-        <v>1234</v>
+        <v>1203</v>
       </c>
       <c r="B848" s="79" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C848" s="79" t="s">
         <v>588</v>
@@ -49437,46 +49320,46 @@
       <c r="E848" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H848" s="83" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I848" s="83" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J848" s="85">
+      <c r="H848" s="93">
+        <v>43835</v>
+      </c>
+      <c r="I848" s="93">
+        <v>44931</v>
+      </c>
+      <c r="J848" s="84">
         <v>35</v>
       </c>
-      <c r="K848" s="85">
+      <c r="K848" s="84">
         <v>35</v>
       </c>
-      <c r="L848" s="86">
+      <c r="L848" s="85">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="M848" s="86">
+      <c r="M848" s="85">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="N848" s="86">
+      <c r="N848" s="85">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="O848" s="87">
+      <c r="O848" s="86">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="P848" s="86">
+      <c r="P848" s="85">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="Q848" s="85">
+      <c r="Q848" s="84">
         <v>264</v>
       </c>
-      <c r="R848" s="88">
+      <c r="R848" s="87">
         <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="849" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A849" s="79" t="s">
-        <v>1235</v>
+        <v>1204</v>
       </c>
       <c r="B849" s="79" t="s">
-        <v>1236</v>
+        <v>1205</v>
       </c>
       <c r="C849" s="79" t="s">
         <v>588</v>
@@ -49487,44 +49370,44 @@
       <c r="E849" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H849" s="83" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I849" s="83" t="s">
-        <v>1201</v>
-      </c>
-      <c r="J849" s="85">
-        <v>36</v>
-      </c>
-      <c r="K849" s="85">
-        <v>36</v>
-      </c>
-      <c r="L849" s="86">
+      <c r="H849" s="93">
+        <v>44199</v>
+      </c>
+      <c r="I849" s="93">
+        <v>45295</v>
+      </c>
+      <c r="J849" s="84">
+        <v>36</v>
+      </c>
+      <c r="K849" s="84">
+        <v>36</v>
+      </c>
+      <c r="L849" s="85">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="M849" s="86">
+      <c r="M849" s="85">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="N849" s="86">
+      <c r="N849" s="85">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="O849" s="87">
+      <c r="O849" s="86">
         <v>3.9699999999999999E-2</v>
       </c>
       <c r="P849" s="77"/>
-      <c r="Q849" s="85">
+      <c r="Q849" s="84">
         <v>641</v>
       </c>
-      <c r="R849" s="88">
+      <c r="R849" s="87">
         <v>0.748</v>
       </c>
     </row>
     <row r="850" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A850" s="79" t="s">
-        <v>1237</v>
+        <v>1206</v>
       </c>
       <c r="B850" s="79" t="s">
-        <v>1238</v>
+        <v>1207</v>
       </c>
       <c r="C850" s="79" t="s">
         <v>588</v>
@@ -49535,47 +49418,47 @@
       <c r="E850" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H850" s="83" t="s">
-        <v>937</v>
-      </c>
-      <c r="I850" s="83" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J850" s="85">
-        <v>36</v>
-      </c>
-      <c r="K850" s="85">
-        <v>36</v>
-      </c>
-      <c r="L850" s="86">
+      <c r="H850" s="93">
+        <v>43842</v>
+      </c>
+      <c r="I850" s="93">
+        <v>45292</v>
+      </c>
+      <c r="J850" s="84">
+        <v>36</v>
+      </c>
+      <c r="K850" s="84">
+        <v>36</v>
+      </c>
+      <c r="L850" s="85">
         <v>0.04</v>
       </c>
-      <c r="M850" s="86">
+      <c r="M850" s="85">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="N850" s="86">
+      <c r="N850" s="85">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="O850" s="87">
+      <c r="O850" s="86">
         <v>2.4E-2</v>
       </c>
       <c r="P850" s="77"/>
-      <c r="Q850" s="85">
+      <c r="Q850" s="84">
         <v>258</v>
       </c>
-      <c r="R850" s="88">
+      <c r="R850" s="87">
         <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="851" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A851" s="79" t="s">
-        <v>1239</v>
+        <v>1208</v>
       </c>
       <c r="B851" s="79" t="s">
         <v>862</v>
       </c>
       <c r="C851" s="79" t="s">
-        <v>1240</v>
+        <v>1209</v>
       </c>
       <c r="D851" s="82">
         <v>110</v>
@@ -49583,46 +49466,46 @@
       <c r="E851" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H851" s="83" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I851" s="83" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J851" s="85">
+      <c r="H851" s="93">
+        <v>43835</v>
+      </c>
+      <c r="I851" s="93">
+        <v>44931</v>
+      </c>
+      <c r="J851" s="84">
         <v>35</v>
       </c>
-      <c r="K851" s="85">
+      <c r="K851" s="84">
         <v>35</v>
       </c>
-      <c r="L851" s="86">
+      <c r="L851" s="85">
         <v>6.25E-2</v>
       </c>
-      <c r="M851" s="86">
+      <c r="M851" s="85">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="N851" s="86">
+      <c r="N851" s="85">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="O851" s="87">
+      <c r="O851" s="86">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="P851" s="86">
+      <c r="P851" s="85">
         <v>0.01</v>
       </c>
-      <c r="Q851" s="85">
+      <c r="Q851" s="84">
         <v>512</v>
       </c>
-      <c r="R851" s="88">
+      <c r="R851" s="87">
         <v>0.81299999999999994</v>
       </c>
     </row>
     <row r="852" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A852" s="79" t="s">
-        <v>1241</v>
+        <v>1210</v>
       </c>
       <c r="B852" s="79" t="s">
-        <v>1242</v>
+        <v>1211</v>
       </c>
       <c r="C852" s="79" t="s">
         <v>696</v>
@@ -49633,41 +49516,41 @@
       <c r="E852" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H852" s="83" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I852" s="83" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J852" s="85">
+      <c r="H852" s="93">
+        <v>44199</v>
+      </c>
+      <c r="I852" s="93">
+        <v>45661</v>
+      </c>
+      <c r="J852" s="84">
         <v>48</v>
       </c>
-      <c r="K852" s="85">
+      <c r="K852" s="84">
         <v>48</v>
       </c>
-      <c r="L852" s="86">
+      <c r="L852" s="85">
         <v>0.06</v>
       </c>
-      <c r="M852" s="86">
+      <c r="M852" s="85">
         <v>6.08E-2</v>
       </c>
-      <c r="N852" s="86">
+      <c r="N852" s="85">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="O852" s="87">
+      <c r="O852" s="86">
         <v>2.5899999999999999E-2</v>
       </c>
       <c r="P852" s="77"/>
-      <c r="Q852" s="85">
+      <c r="Q852" s="84">
         <v>422</v>
       </c>
-      <c r="R852" s="88">
+      <c r="R852" s="87">
         <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="853" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A853" s="79" t="s">
-        <v>1243</v>
+        <v>1212</v>
       </c>
       <c r="B853" s="79" t="s">
         <v>244</v>
@@ -49681,41 +49564,41 @@
       <c r="E853" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H853" s="83" t="s">
-        <v>1271</v>
-      </c>
-      <c r="I853" s="83" t="s">
-        <v>1210</v>
-      </c>
-      <c r="J853" s="85">
-        <v>36</v>
-      </c>
-      <c r="K853" s="85">
-        <v>36</v>
-      </c>
-      <c r="L853" s="86">
+      <c r="H853" s="93">
+        <v>44198</v>
+      </c>
+      <c r="I853" s="93">
+        <v>45294</v>
+      </c>
+      <c r="J853" s="84">
+        <v>36</v>
+      </c>
+      <c r="K853" s="84">
+        <v>36</v>
+      </c>
+      <c r="L853" s="85">
         <v>0.13</v>
       </c>
-      <c r="M853" s="86">
+      <c r="M853" s="85">
         <v>0.1318</v>
       </c>
-      <c r="N853" s="86">
+      <c r="N853" s="85">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="O853" s="87">
+      <c r="O853" s="86">
         <v>6.54E-2</v>
       </c>
       <c r="P853" s="77"/>
-      <c r="Q853" s="85">
+      <c r="Q853" s="84">
         <v>771</v>
       </c>
-      <c r="R853" s="88">
+      <c r="R853" s="87">
         <v>0.83599999999999997</v>
       </c>
     </row>
     <row r="854" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A854" s="79" t="s">
-        <v>1244</v>
+        <v>1213</v>
       </c>
       <c r="B854" s="79" t="s">
         <v>244</v>
@@ -49729,44 +49612,44 @@
       <c r="E854" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H854" s="83" t="s">
-        <v>1271</v>
-      </c>
-      <c r="I854" s="83" t="s">
-        <v>1210</v>
-      </c>
-      <c r="J854" s="85">
-        <v>36</v>
-      </c>
-      <c r="K854" s="85">
-        <v>36</v>
-      </c>
-      <c r="L854" s="86">
+      <c r="H854" s="93">
+        <v>44198</v>
+      </c>
+      <c r="I854" s="93">
+        <v>45294</v>
+      </c>
+      <c r="J854" s="84">
+        <v>36</v>
+      </c>
+      <c r="K854" s="84">
+        <v>36</v>
+      </c>
+      <c r="L854" s="85">
         <v>0.16750000000000001</v>
       </c>
-      <c r="M854" s="86">
+      <c r="M854" s="85">
         <v>0.16980000000000001</v>
       </c>
-      <c r="N854" s="86">
+      <c r="N854" s="85">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="O854" s="87">
+      <c r="O854" s="86">
         <v>7.9799999999999996E-2</v>
       </c>
       <c r="P854" s="77"/>
-      <c r="Q854" s="85">
+      <c r="Q854" s="84">
         <v>975</v>
       </c>
-      <c r="R854" s="88">
+      <c r="R854" s="87">
         <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="855" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A855" s="79" t="s">
-        <v>1245</v>
+        <v>1214</v>
       </c>
       <c r="B855" s="79" t="s">
-        <v>1246</v>
+        <v>1215</v>
       </c>
       <c r="C855" s="79" t="s">
         <v>26</v>
@@ -49777,44 +49660,44 @@
       <c r="E855" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H855" s="83" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I855" s="83" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J855" s="85">
+      <c r="H855" s="93">
+        <v>43841</v>
+      </c>
+      <c r="I855" s="93">
+        <v>45292</v>
+      </c>
+      <c r="J855" s="84">
         <v>37</v>
       </c>
-      <c r="K855" s="85">
+      <c r="K855" s="84">
         <v>37</v>
       </c>
-      <c r="L855" s="86">
+      <c r="L855" s="85">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M855" s="86">
+      <c r="M855" s="85">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="N855" s="86">
+      <c r="N855" s="85">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="O855" s="87">
+      <c r="O855" s="86">
         <v>2.98E-2</v>
       </c>
       <c r="P855" s="77"/>
-      <c r="Q855" s="85">
+      <c r="Q855" s="84">
         <v>482</v>
       </c>
-      <c r="R855" s="88">
+      <c r="R855" s="87">
         <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="856" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A856" s="79" t="s">
-        <v>1247</v>
+        <v>1216</v>
       </c>
       <c r="B856" s="79" t="s">
-        <v>1246</v>
+        <v>1215</v>
       </c>
       <c r="C856" s="79" t="s">
         <v>26</v>
@@ -49825,44 +49708,44 @@
       <c r="E856" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H856" s="83" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I856" s="83" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J856" s="85">
+      <c r="H856" s="93">
+        <v>43841</v>
+      </c>
+      <c r="I856" s="93">
+        <v>45292</v>
+      </c>
+      <c r="J856" s="84">
         <v>37</v>
       </c>
-      <c r="K856" s="85">
+      <c r="K856" s="84">
         <v>37</v>
       </c>
-      <c r="L856" s="86">
+      <c r="L856" s="85">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="M856" s="86">
+      <c r="M856" s="85">
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="N856" s="86">
+      <c r="N856" s="85">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="O856" s="87">
+      <c r="O856" s="86">
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="P856" s="77"/>
-      <c r="Q856" s="85">
+      <c r="Q856" s="84">
         <v>592</v>
       </c>
-      <c r="R856" s="88">
+      <c r="R856" s="87">
         <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="857" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A857" s="79" t="s">
-        <v>1248</v>
+        <v>1217</v>
       </c>
       <c r="B857" s="79" t="s">
-        <v>1249</v>
+        <v>1218</v>
       </c>
       <c r="C857" s="79" t="s">
         <v>26</v>
@@ -49873,46 +49756,46 @@
       <c r="E857" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H857" s="83" t="s">
-        <v>931</v>
-      </c>
-      <c r="I857" s="83" t="s">
-        <v>1272</v>
-      </c>
-      <c r="J857" s="85">
+      <c r="H857" s="93">
+        <v>43836</v>
+      </c>
+      <c r="I857" s="93">
+        <v>45298</v>
+      </c>
+      <c r="J857" s="84">
         <v>48</v>
       </c>
-      <c r="K857" s="85">
+      <c r="K857" s="84">
         <v>48</v>
       </c>
-      <c r="L857" s="86">
+      <c r="L857" s="85">
         <v>0.09</v>
       </c>
-      <c r="M857" s="86">
+      <c r="M857" s="85">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="N857" s="86">
+      <c r="N857" s="85">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="O857" s="87">
+      <c r="O857" s="86">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="P857" s="86">
+      <c r="P857" s="85">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="Q857" s="85">
+      <c r="Q857" s="84">
         <v>674</v>
       </c>
-      <c r="R857" s="88">
+      <c r="R857" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A858" s="79" t="s">
-        <v>1250</v>
+        <v>1219</v>
       </c>
       <c r="B858" s="79" t="s">
-        <v>1249</v>
+        <v>1218</v>
       </c>
       <c r="C858" s="79" t="s">
         <v>26</v>
@@ -49923,44 +49806,44 @@
       <c r="E858" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H858" s="83" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I858" s="83" t="s">
-        <v>1216</v>
-      </c>
-      <c r="J858" s="85">
+      <c r="H858" s="93">
+        <v>43840</v>
+      </c>
+      <c r="I858" s="93">
+        <v>45658</v>
+      </c>
+      <c r="J858" s="84">
         <v>49</v>
       </c>
-      <c r="K858" s="85">
+      <c r="K858" s="84">
         <v>49</v>
       </c>
-      <c r="L858" s="86">
+      <c r="L858" s="85">
         <v>6.25E-2</v>
       </c>
-      <c r="M858" s="86">
+      <c r="M858" s="85">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="N858" s="86">
+      <c r="N858" s="85">
         <v>2.07E-2</v>
       </c>
-      <c r="O858" s="87">
+      <c r="O858" s="86">
         <v>2.7699999999999999E-2</v>
       </c>
       <c r="P858" s="77"/>
-      <c r="Q858" s="85">
+      <c r="Q858" s="84">
         <v>427</v>
       </c>
-      <c r="R858" s="88">
+      <c r="R858" s="87">
         <v>0.747</v>
       </c>
     </row>
     <row r="859" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A859" s="79" t="s">
-        <v>1251</v>
+        <v>1220</v>
       </c>
       <c r="B859" s="79" t="s">
-        <v>1249</v>
+        <v>1218</v>
       </c>
       <c r="C859" s="79" t="s">
         <v>26</v>
@@ -49971,44 +49854,44 @@
       <c r="E859" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H859" s="83" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I859" s="83" t="s">
-        <v>1216</v>
-      </c>
-      <c r="J859" s="85">
+      <c r="H859" s="93">
+        <v>43840</v>
+      </c>
+      <c r="I859" s="93">
+        <v>45658</v>
+      </c>
+      <c r="J859" s="84">
         <v>49</v>
       </c>
-      <c r="K859" s="85">
+      <c r="K859" s="84">
         <v>49</v>
       </c>
-      <c r="L859" s="86">
+      <c r="L859" s="85">
         <v>0.09</v>
       </c>
-      <c r="M859" s="86">
+      <c r="M859" s="85">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="N859" s="86">
+      <c r="N859" s="85">
         <v>3.61E-2</v>
       </c>
-      <c r="O859" s="87">
+      <c r="O859" s="86">
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="P859" s="77"/>
-      <c r="Q859" s="85">
+      <c r="Q859" s="84">
         <v>552</v>
       </c>
-      <c r="R859" s="88">
+      <c r="R859" s="87">
         <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="860" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A860" s="79" t="s">
-        <v>1252</v>
+        <v>1221</v>
       </c>
       <c r="B860" s="79" t="s">
-        <v>1249</v>
+        <v>1218</v>
       </c>
       <c r="C860" s="79" t="s">
         <v>26</v>
@@ -50019,44 +49902,44 @@
       <c r="E860" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H860" s="83" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I860" s="83" t="s">
-        <v>1215</v>
-      </c>
-      <c r="J860" s="85">
+      <c r="H860" s="93">
+        <v>43840</v>
+      </c>
+      <c r="I860" s="93">
+        <v>44927</v>
+      </c>
+      <c r="J860" s="84">
         <v>26</v>
       </c>
-      <c r="K860" s="85">
+      <c r="K860" s="84">
         <v>26</v>
       </c>
-      <c r="L860" s="86">
+      <c r="L860" s="85">
         <v>0.16</v>
       </c>
-      <c r="M860" s="86">
+      <c r="M860" s="85">
         <v>0.16220000000000001</v>
       </c>
-      <c r="N860" s="86">
+      <c r="N860" s="85">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="O860" s="87">
+      <c r="O860" s="86">
         <v>0.1192</v>
       </c>
       <c r="P860" s="77"/>
-      <c r="Q860" s="85">
+      <c r="Q860" s="84">
         <v>863</v>
       </c>
-      <c r="R860" s="88">
+      <c r="R860" s="87">
         <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="861" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A861" s="79" t="s">
-        <v>1253</v>
+        <v>1222</v>
       </c>
       <c r="B861" s="79" t="s">
-        <v>1254</v>
+        <v>1223</v>
       </c>
       <c r="C861" s="79" t="s">
         <v>588</v>
@@ -50067,46 +49950,46 @@
       <c r="E861" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H861" s="83" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I861" s="83" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J861" s="85">
+      <c r="H861" s="93">
+        <v>43837</v>
+      </c>
+      <c r="I861" s="93">
+        <v>44932</v>
+      </c>
+      <c r="J861" s="84">
         <v>34</v>
       </c>
-      <c r="K861" s="85">
+      <c r="K861" s="84">
         <v>34</v>
       </c>
-      <c r="L861" s="86">
+      <c r="L861" s="85">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="M861" s="86">
+      <c r="M861" s="85">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="N861" s="86">
+      <c r="N861" s="85">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="O861" s="87">
+      <c r="O861" s="86">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="P861" s="86">
+      <c r="P861" s="85">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="Q861" s="85">
+      <c r="Q861" s="84">
         <v>513</v>
       </c>
-      <c r="R861" s="88">
+      <c r="R861" s="87">
         <v>0.77</v>
       </c>
     </row>
     <row r="862" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A862" s="79" t="s">
-        <v>1255</v>
+        <v>1224</v>
       </c>
       <c r="B862" s="79" t="s">
-        <v>1254</v>
+        <v>1223</v>
       </c>
       <c r="C862" s="79" t="s">
         <v>588</v>
@@ -50117,43 +50000,43 @@
       <c r="E862" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H862" s="83" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I862" s="83" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J862" s="85">
+      <c r="H862" s="93">
+        <v>43837</v>
+      </c>
+      <c r="I862" s="93">
+        <v>44932</v>
+      </c>
+      <c r="J862" s="84">
         <v>34</v>
       </c>
-      <c r="K862" s="85">
+      <c r="K862" s="84">
         <v>34</v>
       </c>
-      <c r="L862" s="86">
+      <c r="L862" s="85">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="M862" s="86">
+      <c r="M862" s="85">
         <v>9.8900000000000002E-2</v>
       </c>
-      <c r="N862" s="86">
+      <c r="N862" s="85">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="O862" s="87">
+      <c r="O862" s="86">
         <v>4.19E-2</v>
       </c>
-      <c r="P862" s="86">
+      <c r="P862" s="85">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="Q862" s="85">
+      <c r="Q862" s="84">
         <v>683</v>
       </c>
-      <c r="R862" s="88">
+      <c r="R862" s="87">
         <v>0.73</v>
       </c>
     </row>
     <row r="863" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A863" s="79" t="s">
-        <v>1256</v>
+        <v>1225</v>
       </c>
       <c r="B863" s="79" t="s">
         <v>247</v>
@@ -50167,41 +50050,41 @@
       <c r="E863" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H863" s="83" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I863" s="83" t="s">
-        <v>1274</v>
-      </c>
-      <c r="J863" s="85">
+      <c r="H863" s="93">
+        <v>44199</v>
+      </c>
+      <c r="I863" s="93">
+        <v>46026</v>
+      </c>
+      <c r="J863" s="84">
         <v>59</v>
       </c>
-      <c r="K863" s="85">
+      <c r="K863" s="84">
         <v>59</v>
       </c>
-      <c r="L863" s="86">
+      <c r="L863" s="85">
         <v>0.02</v>
       </c>
-      <c r="M863" s="86">
+      <c r="M863" s="85">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="N863" s="86">
+      <c r="N863" s="85">
         <v>3.3E-3</v>
       </c>
-      <c r="O863" s="87">
+      <c r="O863" s="86">
         <v>1.21E-2</v>
       </c>
       <c r="P863" s="77"/>
-      <c r="Q863" s="85">
+      <c r="Q863" s="84">
         <v>170</v>
       </c>
-      <c r="R863" s="88">
+      <c r="R863" s="87">
         <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="864" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A864" s="79" t="s">
-        <v>1257</v>
+        <v>1226</v>
       </c>
       <c r="B864" s="79" t="s">
         <v>109</v>
@@ -50215,43 +50098,43 @@
       <c r="E864" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H864" s="83" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I864" s="83" t="s">
-        <v>941</v>
-      </c>
-      <c r="J864" s="85">
+      <c r="H864" s="93">
+        <v>43835</v>
+      </c>
+      <c r="I864" s="93">
+        <v>44208</v>
+      </c>
+      <c r="J864" s="84">
         <v>19</v>
       </c>
-      <c r="K864" s="85">
+      <c r="K864" s="84">
         <v>19</v>
       </c>
-      <c r="L864" s="86">
+      <c r="L864" s="85">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M864" s="86">
+      <c r="M864" s="85">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="N864" s="86">
+      <c r="N864" s="85">
         <v>1.9E-2</v>
       </c>
-      <c r="O864" s="87">
+      <c r="O864" s="86">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="P864" s="86">
+      <c r="P864" s="85">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="Q864" s="85">
+      <c r="Q864" s="84">
         <v>520</v>
       </c>
-      <c r="R864" s="88">
+      <c r="R864" s="87">
         <v>0.88</v>
       </c>
     </row>
     <row r="865" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A865" s="79" t="s">
-        <v>1258</v>
+        <v>1227</v>
       </c>
       <c r="B865" s="79" t="s">
         <v>109</v>
@@ -50265,43 +50148,43 @@
       <c r="E865" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H865" s="83" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I865" s="83" t="s">
-        <v>937</v>
-      </c>
-      <c r="J865" s="85">
+      <c r="H865" s="93">
+        <v>43835</v>
+      </c>
+      <c r="I865" s="93">
+        <v>43842</v>
+      </c>
+      <c r="J865" s="84">
         <v>7</v>
       </c>
-      <c r="K865" s="85">
+      <c r="K865" s="84">
         <v>7</v>
       </c>
-      <c r="L865" s="86">
+      <c r="L865" s="85">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="M865" s="86">
+      <c r="M865" s="85">
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="N865" s="86">
+      <c r="N865" s="85">
         <v>4.65E-2</v>
       </c>
-      <c r="O865" s="87">
+      <c r="O865" s="86">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="P865" s="86">
+      <c r="P865" s="85">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="Q865" s="85">
+      <c r="Q865" s="84">
         <v>498</v>
       </c>
-      <c r="R865" s="88">
+      <c r="R865" s="87">
         <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="866" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A866" s="79" t="s">
-        <v>1259</v>
+        <v>1228</v>
       </c>
       <c r="B866" s="79" t="s">
         <v>109</v>
@@ -50315,43 +50198,43 @@
       <c r="E866" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H866" s="83" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I866" s="83" t="s">
-        <v>941</v>
-      </c>
-      <c r="J866" s="85">
+      <c r="H866" s="93">
+        <v>43836</v>
+      </c>
+      <c r="I866" s="93">
+        <v>44208</v>
+      </c>
+      <c r="J866" s="84">
         <v>17</v>
       </c>
-      <c r="K866" s="85">
+      <c r="K866" s="84">
         <v>17</v>
       </c>
-      <c r="L866" s="86">
+      <c r="L866" s="85">
         <v>0.1</v>
       </c>
-      <c r="M866" s="86">
+      <c r="M866" s="85">
         <v>0.1014</v>
       </c>
-      <c r="N866" s="86">
+      <c r="N866" s="85">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="O866" s="87">
+      <c r="O866" s="86">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="P866" s="86">
+      <c r="P866" s="85">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="Q866" s="85">
+      <c r="Q866" s="84">
         <v>726</v>
       </c>
-      <c r="R866" s="88">
+      <c r="R866" s="87">
         <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="867" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A867" s="79" t="s">
-        <v>1260</v>
+        <v>1229</v>
       </c>
       <c r="B867" s="79" t="s">
         <v>109</v>
@@ -50365,43 +50248,43 @@
       <c r="E867" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H867" s="83" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I867" s="83" t="s">
-        <v>941</v>
-      </c>
-      <c r="J867" s="85">
+      <c r="H867" s="93">
+        <v>43837</v>
+      </c>
+      <c r="I867" s="93">
+        <v>44208</v>
+      </c>
+      <c r="J867" s="84">
         <v>17</v>
       </c>
-      <c r="K867" s="85">
+      <c r="K867" s="84">
         <v>17</v>
       </c>
-      <c r="L867" s="86">
+      <c r="L867" s="85">
         <v>0.13750000000000001</v>
       </c>
-      <c r="M867" s="86">
+      <c r="M867" s="85">
         <v>0.1394</v>
       </c>
-      <c r="N867" s="86">
+      <c r="N867" s="85">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="O867" s="87">
+      <c r="O867" s="86">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="P867" s="86">
+      <c r="P867" s="85">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="Q867" s="85">
+      <c r="Q867" s="84">
         <v>1106</v>
       </c>
-      <c r="R867" s="88">
+      <c r="R867" s="87">
         <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="870" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A870" s="78" t="s">
-        <v>1275</v>
+        <v>1231</v>
       </c>
       <c r="B870" s="79" t="s">
         <v>109</v>
@@ -50415,41 +50298,41 @@
       <c r="E870" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H870" s="79" t="s">
-        <v>937</v>
-      </c>
-      <c r="I870" s="89" t="s">
-        <v>1207</v>
-      </c>
-      <c r="J870" s="85">
+      <c r="H870" s="94">
+        <v>43842</v>
+      </c>
+      <c r="I870" s="95">
+        <v>44573</v>
+      </c>
+      <c r="J870" s="84">
         <v>23</v>
       </c>
-      <c r="K870" s="85">
+      <c r="K870" s="84">
         <v>23</v>
       </c>
-      <c r="L870" s="86">
+      <c r="L870" s="85">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="M870" s="86">
+      <c r="M870" s="85">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="N870" s="86">
+      <c r="N870" s="85">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="O870" s="86">
+      <c r="O870" s="85">
         <v>2.75E-2</v>
       </c>
-      <c r="P870" s="90"/>
-      <c r="Q870" s="85">
+      <c r="P870" s="88"/>
+      <c r="Q870" s="84">
         <v>203</v>
       </c>
-      <c r="R870" s="88">
+      <c r="R870" s="87">
         <v>0.82899999999999996</v>
       </c>
     </row>
     <row r="871" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A871" s="78" t="s">
-        <v>1276</v>
+        <v>1232</v>
       </c>
       <c r="B871" s="79" t="s">
         <v>109</v>
@@ -50463,41 +50346,41 @@
       <c r="E871" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H871" s="79" t="s">
-        <v>937</v>
-      </c>
-      <c r="I871" s="89" t="s">
-        <v>1207</v>
-      </c>
-      <c r="J871" s="85">
+      <c r="H871" s="94">
+        <v>43842</v>
+      </c>
+      <c r="I871" s="95">
+        <v>44573</v>
+      </c>
+      <c r="J871" s="84">
         <v>23</v>
       </c>
-      <c r="K871" s="85">
+      <c r="K871" s="84">
         <v>23</v>
       </c>
-      <c r="L871" s="86">
+      <c r="L871" s="85">
         <v>5.5E-2</v>
       </c>
-      <c r="M871" s="86">
+      <c r="M871" s="85">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="N871" s="86">
+      <c r="N871" s="85">
         <v>2.41E-2</v>
       </c>
-      <c r="O871" s="86">
+      <c r="O871" s="85">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="P871" s="90"/>
-      <c r="Q871" s="85">
+      <c r="P871" s="88"/>
+      <c r="Q871" s="84">
         <v>317</v>
       </c>
-      <c r="R871" s="88">
+      <c r="R871" s="87">
         <v>0.87</v>
       </c>
     </row>
     <row r="872" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A872" s="78" t="s">
-        <v>1277</v>
+        <v>1233</v>
       </c>
       <c r="B872" s="79" t="s">
         <v>348</v>
@@ -50511,43 +50394,43 @@
       <c r="E872" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H872" s="79" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I872" s="89" t="s">
-        <v>1211</v>
-      </c>
-      <c r="J872" s="85">
+      <c r="H872" s="94">
+        <v>43835</v>
+      </c>
+      <c r="I872" s="95">
+        <v>44930</v>
+      </c>
+      <c r="J872" s="84">
         <v>34</v>
       </c>
-      <c r="K872" s="85">
+      <c r="K872" s="84">
         <v>34</v>
       </c>
-      <c r="L872" s="86">
+      <c r="L872" s="85">
         <v>2.75E-2</v>
       </c>
-      <c r="M872" s="86">
+      <c r="M872" s="85">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="N872" s="86">
+      <c r="N872" s="85">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="O872" s="86">
+      <c r="O872" s="85">
         <v>7.6E-3</v>
       </c>
-      <c r="P872" s="86">
+      <c r="P872" s="85">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="Q872" s="85">
+      <c r="Q872" s="84">
         <v>225</v>
       </c>
-      <c r="R872" s="88">
+      <c r="R872" s="87">
         <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="873" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A873" s="78" t="s">
-        <v>1278</v>
+        <v>1234</v>
       </c>
       <c r="B873" s="79" t="s">
         <v>348</v>
@@ -50561,44 +50444,44 @@
       <c r="E873" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H873" s="79" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I873" s="89" t="s">
-        <v>1201</v>
-      </c>
-      <c r="J873" s="85">
-        <v>36</v>
-      </c>
-      <c r="K873" s="85">
-        <v>36</v>
-      </c>
-      <c r="L873" s="86">
+      <c r="H873" s="94">
+        <v>44201</v>
+      </c>
+      <c r="I873" s="95">
+        <v>45295</v>
+      </c>
+      <c r="J873" s="84">
+        <v>36</v>
+      </c>
+      <c r="K873" s="84">
+        <v>36</v>
+      </c>
+      <c r="L873" s="85">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="M873" s="86">
+      <c r="M873" s="85">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="N873" s="86">
+      <c r="N873" s="85">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="O873" s="86">
+      <c r="O873" s="85">
         <v>2.87E-2</v>
       </c>
-      <c r="P873" s="90"/>
-      <c r="Q873" s="85">
+      <c r="P873" s="88"/>
+      <c r="Q873" s="84">
         <v>198</v>
       </c>
-      <c r="R873" s="88">
+      <c r="R873" s="87">
         <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="874" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A874" s="78" t="s">
-        <v>1279</v>
+        <v>1235</v>
       </c>
       <c r="B874" s="79" t="s">
-        <v>1306</v>
+        <v>1262</v>
       </c>
       <c r="C874" s="79" t="s">
         <v>26</v>
@@ -50609,43 +50492,43 @@
       <c r="E874" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H874" s="79" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I874" s="89" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J874" s="85">
+      <c r="H874" s="94">
+        <v>43835</v>
+      </c>
+      <c r="I874" s="95">
+        <v>44931</v>
+      </c>
+      <c r="J874" s="84">
         <v>35</v>
       </c>
-      <c r="K874" s="85">
+      <c r="K874" s="84">
         <v>35</v>
       </c>
-      <c r="L874" s="86">
+      <c r="L874" s="85">
         <v>5.5E-2</v>
       </c>
-      <c r="M874" s="86">
+      <c r="M874" s="85">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="N874" s="86">
+      <c r="N874" s="85">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="O874" s="86">
+      <c r="O874" s="85">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="P874" s="86">
+      <c r="P874" s="85">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="Q874" s="85">
+      <c r="Q874" s="84">
         <v>469</v>
       </c>
-      <c r="R874" s="88">
+      <c r="R874" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A875" s="78" t="s">
-        <v>1280</v>
+        <v>1236</v>
       </c>
       <c r="B875" s="79" t="s">
         <v>254</v>
@@ -50659,44 +50542,44 @@
       <c r="E875" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H875" s="79" t="s">
-        <v>937</v>
-      </c>
-      <c r="I875" s="89" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J875" s="85">
-        <v>36</v>
-      </c>
-      <c r="K875" s="85">
-        <v>36</v>
-      </c>
-      <c r="L875" s="86">
+      <c r="H875" s="94">
+        <v>43842</v>
+      </c>
+      <c r="I875" s="95">
+        <v>45292</v>
+      </c>
+      <c r="J875" s="84">
+        <v>36</v>
+      </c>
+      <c r="K875" s="84">
+        <v>36</v>
+      </c>
+      <c r="L875" s="85">
         <v>0.09</v>
       </c>
-      <c r="M875" s="86">
+      <c r="M875" s="85">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="N875" s="86">
+      <c r="N875" s="85">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="O875" s="86">
+      <c r="O875" s="85">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="P875" s="90"/>
-      <c r="Q875" s="85">
+      <c r="P875" s="88"/>
+      <c r="Q875" s="84">
         <v>458</v>
       </c>
-      <c r="R875" s="88">
+      <c r="R875" s="87">
         <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="876" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A876" s="78" t="s">
-        <v>1281</v>
+        <v>1237</v>
       </c>
       <c r="B876" s="79" t="s">
-        <v>1307</v>
+        <v>1263</v>
       </c>
       <c r="C876" s="79" t="s">
         <v>588</v>
@@ -50707,44 +50590,44 @@
       <c r="E876" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H876" s="79" t="s">
-        <v>937</v>
-      </c>
-      <c r="I876" s="89" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J876" s="85">
-        <v>36</v>
-      </c>
-      <c r="K876" s="85">
-        <v>36</v>
-      </c>
-      <c r="L876" s="86">
+      <c r="H876" s="94">
+        <v>43842</v>
+      </c>
+      <c r="I876" s="95">
+        <v>45292</v>
+      </c>
+      <c r="J876" s="84">
+        <v>36</v>
+      </c>
+      <c r="K876" s="84">
+        <v>36</v>
+      </c>
+      <c r="L876" s="85">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="M876" s="86">
+      <c r="M876" s="85">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="N876" s="86">
+      <c r="N876" s="85">
         <v>1.95E-2</v>
       </c>
-      <c r="O876" s="86">
+      <c r="O876" s="85">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P876" s="90"/>
-      <c r="Q876" s="85">
+      <c r="P876" s="88"/>
+      <c r="Q876" s="84">
         <v>388</v>
       </c>
-      <c r="R876" s="88">
+      <c r="R876" s="87">
         <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="877" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A877" s="78" t="s">
-        <v>1282</v>
+        <v>1238</v>
       </c>
       <c r="B877" s="79" t="s">
-        <v>1308</v>
+        <v>1264</v>
       </c>
       <c r="C877" s="79" t="s">
         <v>26</v>
@@ -50755,44 +50638,44 @@
       <c r="E877" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H877" s="79" t="s">
-        <v>937</v>
-      </c>
-      <c r="I877" s="89" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J877" s="85">
-        <v>36</v>
-      </c>
-      <c r="K877" s="85">
-        <v>36</v>
-      </c>
-      <c r="L877" s="86">
+      <c r="H877" s="94">
+        <v>43842</v>
+      </c>
+      <c r="I877" s="95">
+        <v>44938</v>
+      </c>
+      <c r="J877" s="84">
+        <v>36</v>
+      </c>
+      <c r="K877" s="84">
+        <v>36</v>
+      </c>
+      <c r="L877" s="85">
         <v>0.03</v>
       </c>
-      <c r="M877" s="86">
+      <c r="M877" s="85">
         <v>3.04E-2</v>
       </c>
-      <c r="N877" s="86">
+      <c r="N877" s="85">
         <v>3.3E-3</v>
       </c>
-      <c r="O877" s="86">
+      <c r="O877" s="85">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="P877" s="90"/>
-      <c r="Q877" s="85">
+      <c r="P877" s="88"/>
+      <c r="Q877" s="84">
         <v>271</v>
       </c>
-      <c r="R877" s="88">
+      <c r="R877" s="87">
         <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="878" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A878" s="78" t="s">
-        <v>1283</v>
+        <v>1239</v>
       </c>
       <c r="B878" s="79" t="s">
-        <v>1308</v>
+        <v>1264</v>
       </c>
       <c r="C878" s="79" t="s">
         <v>26</v>
@@ -50803,41 +50686,41 @@
       <c r="E878" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H878" s="79" t="s">
-        <v>937</v>
-      </c>
-      <c r="I878" s="89" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J878" s="85">
+      <c r="H878" s="94">
+        <v>43842</v>
+      </c>
+      <c r="I878" s="95">
+        <v>44938</v>
+      </c>
+      <c r="J878" s="84">
         <v>35</v>
       </c>
-      <c r="K878" s="85">
+      <c r="K878" s="84">
         <v>35</v>
       </c>
-      <c r="L878" s="86">
+      <c r="L878" s="85">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="M878" s="86">
+      <c r="M878" s="85">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="N878" s="86">
+      <c r="N878" s="85">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="O878" s="86">
+      <c r="O878" s="85">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="P878" s="90"/>
-      <c r="Q878" s="85">
+      <c r="P878" s="88"/>
+      <c r="Q878" s="84">
         <v>269</v>
       </c>
-      <c r="R878" s="88">
+      <c r="R878" s="87">
         <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="879" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A879" s="78" t="s">
-        <v>1284</v>
+        <v>1240</v>
       </c>
       <c r="B879" s="79" t="s">
         <v>244</v>
@@ -50851,47 +50734,47 @@
       <c r="E879" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H879" s="79" t="s">
-        <v>937</v>
-      </c>
-      <c r="I879" s="89" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J879" s="85">
+      <c r="H879" s="94">
+        <v>43842</v>
+      </c>
+      <c r="I879" s="95">
+        <v>44938</v>
+      </c>
+      <c r="J879" s="84">
         <v>35</v>
       </c>
-      <c r="K879" s="85">
+      <c r="K879" s="84">
         <v>35</v>
       </c>
-      <c r="L879" s="86">
+      <c r="L879" s="85">
         <v>0.1075</v>
       </c>
-      <c r="M879" s="86">
+      <c r="M879" s="85">
         <v>0.109</v>
       </c>
-      <c r="N879" s="86">
+      <c r="N879" s="85">
         <v>6.3E-3</v>
       </c>
-      <c r="O879" s="86">
+      <c r="O879" s="85">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="P879" s="90"/>
-      <c r="Q879" s="85">
+      <c r="P879" s="88"/>
+      <c r="Q879" s="84">
         <v>1027</v>
       </c>
-      <c r="R879" s="88">
+      <c r="R879" s="87">
         <v>0.875</v>
       </c>
     </row>
     <row r="880" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A880" s="78" t="s">
-        <v>1285</v>
+        <v>1241</v>
       </c>
       <c r="B880" s="79" t="s">
         <v>35</v>
       </c>
       <c r="C880" s="79" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D880" s="82">
         <v>50</v>
@@ -50899,47 +50782,47 @@
       <c r="E880" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H880" s="79" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I880" s="89" t="s">
-        <v>941</v>
-      </c>
-      <c r="J880" s="85">
+      <c r="H880" s="94">
+        <v>43841</v>
+      </c>
+      <c r="I880" s="95">
+        <v>44208</v>
+      </c>
+      <c r="J880" s="84">
         <v>13</v>
       </c>
-      <c r="K880" s="85">
+      <c r="K880" s="84">
         <v>13</v>
       </c>
-      <c r="L880" s="86">
+      <c r="L880" s="85">
         <v>0.26</v>
       </c>
-      <c r="M880" s="86">
+      <c r="M880" s="85">
         <v>0.2636</v>
       </c>
-      <c r="N880" s="86">
+      <c r="N880" s="85">
         <v>0.1484</v>
       </c>
-      <c r="O880" s="86">
+      <c r="O880" s="85">
         <v>0.2157</v>
       </c>
-      <c r="P880" s="90"/>
-      <c r="Q880" s="85">
+      <c r="P880" s="88"/>
+      <c r="Q880" s="84">
         <v>1152</v>
       </c>
-      <c r="R880" s="88">
+      <c r="R880" s="87">
         <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="881" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A881" s="78" t="s">
-        <v>1286</v>
+        <v>1242</v>
       </c>
       <c r="B881" s="79" t="s">
         <v>35</v>
       </c>
       <c r="C881" s="79" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D881" s="82">
         <v>150</v>
@@ -50947,47 +50830,47 @@
       <c r="E881" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H881" s="79" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I881" s="89" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J881" s="85">
+      <c r="H881" s="94">
+        <v>43841</v>
+      </c>
+      <c r="I881" s="95">
+        <v>45303</v>
+      </c>
+      <c r="J881" s="84">
         <v>48</v>
       </c>
-      <c r="K881" s="85">
+      <c r="K881" s="84">
         <v>48</v>
       </c>
-      <c r="L881" s="86">
+      <c r="L881" s="85">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="M881" s="86">
+      <c r="M881" s="85">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="N881" s="86">
+      <c r="N881" s="85">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="O881" s="86">
+      <c r="O881" s="85">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="P881" s="90"/>
-      <c r="Q881" s="85">
+      <c r="P881" s="88"/>
+      <c r="Q881" s="84">
         <v>483</v>
       </c>
-      <c r="R881" s="88">
+      <c r="R881" s="87">
         <v>0.748</v>
       </c>
     </row>
     <row r="882" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A882" s="78" t="s">
-        <v>1287</v>
+        <v>1243</v>
       </c>
       <c r="B882" s="79" t="s">
         <v>35</v>
       </c>
       <c r="C882" s="79" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D882" s="82">
         <v>200</v>
@@ -50995,47 +50878,47 @@
       <c r="E882" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H882" s="79" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I882" s="89" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J882" s="85">
+      <c r="H882" s="94">
+        <v>43841</v>
+      </c>
+      <c r="I882" s="95">
+        <v>45303</v>
+      </c>
+      <c r="J882" s="84">
         <v>48</v>
       </c>
-      <c r="K882" s="85">
+      <c r="K882" s="84">
         <v>48</v>
       </c>
-      <c r="L882" s="86">
+      <c r="L882" s="85">
         <v>6.25E-2</v>
       </c>
-      <c r="M882" s="86">
+      <c r="M882" s="85">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="N882" s="86">
+      <c r="N882" s="85">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="O882" s="86">
+      <c r="O882" s="85">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="P882" s="90"/>
-      <c r="Q882" s="85">
+      <c r="P882" s="88"/>
+      <c r="Q882" s="84">
         <v>402</v>
       </c>
-      <c r="R882" s="88">
+      <c r="R882" s="87">
         <v>0.872</v>
       </c>
     </row>
     <row r="883" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A883" s="78" t="s">
-        <v>1288</v>
+        <v>1244</v>
       </c>
       <c r="B883" s="79" t="s">
         <v>35</v>
       </c>
       <c r="C883" s="79" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D883" s="82">
         <v>100</v>
@@ -51043,46 +50926,46 @@
       <c r="E883" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H883" s="79" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I883" s="89" t="s">
-        <v>1205</v>
-      </c>
-      <c r="J883" s="85">
+      <c r="H883" s="94">
+        <v>43835</v>
+      </c>
+      <c r="I883" s="95">
+        <v>45297</v>
+      </c>
+      <c r="J883" s="84">
         <v>47</v>
       </c>
-      <c r="K883" s="85">
+      <c r="K883" s="84">
         <v>47</v>
       </c>
-      <c r="L883" s="86">
+      <c r="L883" s="85">
         <v>5.5E-2</v>
       </c>
-      <c r="M883" s="86">
+      <c r="M883" s="85">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="N883" s="86">
+      <c r="N883" s="85">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="O883" s="86">
+      <c r="O883" s="85">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P883" s="86">
+      <c r="P883" s="85">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="Q883" s="85">
+      <c r="Q883" s="84">
         <v>450</v>
       </c>
-      <c r="R883" s="88">
+      <c r="R883" s="87">
         <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="884" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A884" s="78" t="s">
-        <v>1289</v>
+        <v>1245</v>
       </c>
       <c r="B884" s="79" t="s">
-        <v>1309</v>
+        <v>1265</v>
       </c>
       <c r="C884" s="79" t="s">
         <v>26</v>
@@ -51093,44 +50976,44 @@
       <c r="E884" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H884" s="79" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I884" s="89" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J884" s="85">
+      <c r="H884" s="94">
+        <v>44199</v>
+      </c>
+      <c r="I884" s="95">
+        <v>45661</v>
+      </c>
+      <c r="J884" s="84">
         <v>47</v>
       </c>
-      <c r="K884" s="85">
+      <c r="K884" s="84">
         <v>47</v>
       </c>
-      <c r="L884" s="86">
+      <c r="L884" s="85">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="M884" s="86">
+      <c r="M884" s="85">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="N884" s="86">
+      <c r="N884" s="85">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="O884" s="86">
+      <c r="O884" s="85">
         <v>1.2E-2</v>
       </c>
-      <c r="P884" s="90"/>
-      <c r="Q884" s="85">
+      <c r="P884" s="88"/>
+      <c r="Q884" s="84">
         <v>129</v>
       </c>
-      <c r="R884" s="88">
+      <c r="R884" s="87">
         <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="885" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A885" s="78" t="s">
-        <v>1290</v>
+        <v>1246</v>
       </c>
       <c r="B885" s="79" t="s">
-        <v>1309</v>
+        <v>1265</v>
       </c>
       <c r="C885" s="79" t="s">
         <v>26</v>
@@ -51141,44 +51024,44 @@
       <c r="E885" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H885" s="79" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I885" s="89" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J885" s="85">
+      <c r="H885" s="94">
+        <v>44199</v>
+      </c>
+      <c r="I885" s="95">
+        <v>45661</v>
+      </c>
+      <c r="J885" s="84">
         <v>47</v>
       </c>
-      <c r="K885" s="85">
+      <c r="K885" s="84">
         <v>47</v>
       </c>
-      <c r="L885" s="86">
+      <c r="L885" s="85">
         <v>0.04</v>
       </c>
-      <c r="M885" s="86">
+      <c r="M885" s="85">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="N885" s="86">
+      <c r="N885" s="85">
         <v>1.17E-2</v>
       </c>
-      <c r="O885" s="86">
+      <c r="O885" s="85">
         <v>1.72E-2</v>
       </c>
-      <c r="P885" s="90"/>
-      <c r="Q885" s="85">
+      <c r="P885" s="88"/>
+      <c r="Q885" s="84">
         <v>289</v>
       </c>
-      <c r="R885" s="88">
+      <c r="R885" s="87">
         <v>0.68</v>
       </c>
     </row>
     <row r="886" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A886" s="78" t="s">
-        <v>1291</v>
+        <v>1247</v>
       </c>
       <c r="B886" s="79" t="s">
-        <v>1310</v>
+        <v>1266</v>
       </c>
       <c r="C886" s="79" t="s">
         <v>26</v>
@@ -51189,43 +51072,43 @@
       <c r="E886" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H886" s="79" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I886" s="89" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J886" s="85">
-        <v>36</v>
-      </c>
-      <c r="K886" s="85">
-        <v>36</v>
-      </c>
-      <c r="L886" s="86">
+      <c r="H886" s="94">
+        <v>43835</v>
+      </c>
+      <c r="I886" s="95">
+        <v>44932</v>
+      </c>
+      <c r="J886" s="84">
+        <v>36</v>
+      </c>
+      <c r="K886" s="84">
+        <v>36</v>
+      </c>
+      <c r="L886" s="85">
         <v>5.5E-2</v>
       </c>
-      <c r="M886" s="86">
+      <c r="M886" s="85">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="N886" s="86">
+      <c r="N886" s="85">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="O886" s="86">
+      <c r="O886" s="85">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="P886" s="86">
+      <c r="P886" s="85">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="Q886" s="85">
+      <c r="Q886" s="84">
         <v>497</v>
       </c>
-      <c r="R886" s="88">
+      <c r="R886" s="87">
         <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="887" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A887" s="78" t="s">
-        <v>1292</v>
+        <v>1248</v>
       </c>
       <c r="B887" s="79" t="s">
         <v>244</v>
@@ -51239,47 +51122,47 @@
       <c r="E887" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H887" s="79" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I887" s="89" t="s">
-        <v>1217</v>
-      </c>
-      <c r="J887" s="85">
-        <v>36</v>
-      </c>
-      <c r="K887" s="85">
-        <v>36</v>
-      </c>
-      <c r="L887" s="86">
+      <c r="H887" s="94">
+        <v>43837</v>
+      </c>
+      <c r="I887" s="95">
+        <v>44933</v>
+      </c>
+      <c r="J887" s="84">
+        <v>36</v>
+      </c>
+      <c r="K887" s="84">
+        <v>36</v>
+      </c>
+      <c r="L887" s="85">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="M887" s="86">
+      <c r="M887" s="85">
         <v>9.8900000000000002E-2</v>
       </c>
-      <c r="N887" s="86">
+      <c r="N887" s="85">
         <v>1.52E-2</v>
       </c>
-      <c r="O887" s="86">
+      <c r="O887" s="85">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="P887" s="90"/>
-      <c r="Q887" s="85">
+      <c r="P887" s="88"/>
+      <c r="Q887" s="84">
         <v>837</v>
       </c>
-      <c r="R887" s="88">
+      <c r="R887" s="87">
         <v>0.89400000000000002</v>
       </c>
     </row>
     <row r="888" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A888" s="78" t="s">
-        <v>1293</v>
+        <v>1249</v>
       </c>
       <c r="B888" s="79" t="s">
-        <v>1311</v>
+        <v>1267</v>
       </c>
       <c r="C888" s="79" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D888" s="82">
         <v>150</v>
@@ -51287,47 +51170,47 @@
       <c r="E888" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H888" s="79" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I888" s="89" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J888" s="85">
+      <c r="H888" s="94">
+        <v>44197</v>
+      </c>
+      <c r="I888" s="95">
+        <v>45292</v>
+      </c>
+      <c r="J888" s="84">
         <v>35</v>
       </c>
-      <c r="K888" s="85">
+      <c r="K888" s="84">
         <v>35</v>
       </c>
-      <c r="L888" s="86">
+      <c r="L888" s="85">
         <v>2.7E-2</v>
       </c>
-      <c r="M888" s="86">
+      <c r="M888" s="85">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="N888" s="86">
+      <c r="N888" s="85">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="O888" s="86">
+      <c r="O888" s="85">
         <v>1.77E-2</v>
       </c>
-      <c r="P888" s="90"/>
-      <c r="Q888" s="85">
+      <c r="P888" s="88"/>
+      <c r="Q888" s="84">
         <v>195</v>
       </c>
-      <c r="R888" s="88">
+      <c r="R888" s="87">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="889" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A889" s="78" t="s">
-        <v>1294</v>
+        <v>1250</v>
       </c>
       <c r="B889" s="79" t="s">
-        <v>1311</v>
+        <v>1267</v>
       </c>
       <c r="C889" s="79" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D889" s="82">
         <v>50</v>
@@ -51335,44 +51218,44 @@
       <c r="E889" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H889" s="79" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I889" s="89" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J889" s="85">
+      <c r="H889" s="94">
+        <v>44197</v>
+      </c>
+      <c r="I889" s="95">
+        <v>45292</v>
+      </c>
+      <c r="J889" s="84">
         <v>35</v>
       </c>
-      <c r="K889" s="85">
+      <c r="K889" s="84">
         <v>35</v>
       </c>
-      <c r="L889" s="86">
+      <c r="L889" s="85">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="M889" s="86">
+      <c r="M889" s="85">
         <v>4.82E-2</v>
       </c>
-      <c r="N889" s="86">
+      <c r="N889" s="85">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="O889" s="86">
+      <c r="O889" s="85">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="P889" s="90"/>
-      <c r="Q889" s="85">
+      <c r="P889" s="88"/>
+      <c r="Q889" s="84">
         <v>211</v>
       </c>
-      <c r="R889" s="88">
+      <c r="R889" s="87">
         <v>0.65600000000000003</v>
       </c>
     </row>
     <row r="890" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A890" s="78" t="s">
-        <v>1295</v>
+        <v>1251</v>
       </c>
       <c r="B890" s="79" t="s">
-        <v>1312</v>
+        <v>1268</v>
       </c>
       <c r="C890" s="79" t="s">
         <v>588</v>
@@ -51383,47 +51266,47 @@
       <c r="E890" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H890" s="79" t="s">
-        <v>937</v>
-      </c>
-      <c r="I890" s="89" t="s">
-        <v>1216</v>
-      </c>
-      <c r="J890" s="85">
+      <c r="H890" s="94">
+        <v>43842</v>
+      </c>
+      <c r="I890" s="95">
+        <v>45658</v>
+      </c>
+      <c r="J890" s="84">
         <v>48</v>
       </c>
-      <c r="K890" s="85">
+      <c r="K890" s="84">
         <v>48</v>
       </c>
-      <c r="L890" s="86">
+      <c r="L890" s="85">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="M890" s="86">
+      <c r="M890" s="85">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="N890" s="86">
+      <c r="N890" s="85">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="O890" s="86">
+      <c r="O890" s="85">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P890" s="90"/>
-      <c r="Q890" s="85">
+      <c r="P890" s="88"/>
+      <c r="Q890" s="84">
         <v>478</v>
       </c>
-      <c r="R890" s="88">
+      <c r="R890" s="87">
         <v>0.60399999999999998</v>
       </c>
     </row>
     <row r="891" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A891" s="78" t="s">
-        <v>1296</v>
+        <v>1252</v>
       </c>
       <c r="B891" s="79" t="s">
-        <v>1313</v>
+        <v>1269</v>
       </c>
       <c r="C891" s="79" t="s">
-        <v>1314</v>
+        <v>1270</v>
       </c>
       <c r="D891" s="82">
         <v>200</v>
@@ -51431,49 +51314,49 @@
       <c r="E891" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H891" s="79" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I891" s="89" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J891" s="85">
-        <v>36</v>
-      </c>
-      <c r="K891" s="85">
-        <v>36</v>
-      </c>
-      <c r="L891" s="86">
+      <c r="H891" s="94">
+        <v>43835</v>
+      </c>
+      <c r="I891" s="95">
+        <v>44931</v>
+      </c>
+      <c r="J891" s="84">
+        <v>36</v>
+      </c>
+      <c r="K891" s="84">
+        <v>36</v>
+      </c>
+      <c r="L891" s="85">
         <v>0.05</v>
       </c>
-      <c r="M891" s="86">
+      <c r="M891" s="85">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="N891" s="86">
+      <c r="N891" s="85">
         <v>1.21E-2</v>
       </c>
-      <c r="O891" s="86">
+      <c r="O891" s="85">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="P891" s="86">
+      <c r="P891" s="85">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="Q891" s="85">
+      <c r="Q891" s="84">
         <v>386</v>
       </c>
-      <c r="R891" s="88">
+      <c r="R891" s="87">
         <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="892" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A892" s="78" t="s">
-        <v>1297</v>
+        <v>1253</v>
       </c>
       <c r="B892" s="79" t="s">
-        <v>1313</v>
+        <v>1269</v>
       </c>
       <c r="C892" s="79" t="s">
-        <v>1314</v>
+        <v>1270</v>
       </c>
       <c r="D892" s="82">
         <v>135</v>
@@ -51481,49 +51364,49 @@
       <c r="E892" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H892" s="79" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I892" s="89" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J892" s="85">
-        <v>36</v>
-      </c>
-      <c r="K892" s="85">
-        <v>36</v>
-      </c>
-      <c r="L892" s="86">
+      <c r="H892" s="94">
+        <v>43835</v>
+      </c>
+      <c r="I892" s="95">
+        <v>44931</v>
+      </c>
+      <c r="J892" s="84">
+        <v>36</v>
+      </c>
+      <c r="K892" s="84">
+        <v>36</v>
+      </c>
+      <c r="L892" s="85">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M892" s="86">
+      <c r="M892" s="85">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="N892" s="86">
+      <c r="N892" s="85">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="O892" s="86">
+      <c r="O892" s="85">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="P892" s="86">
+      <c r="P892" s="85">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="Q892" s="85">
+      <c r="Q892" s="84">
         <v>493</v>
       </c>
-      <c r="R892" s="88">
+      <c r="R892" s="87">
         <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="893" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A893" s="78" t="s">
-        <v>1298</v>
+        <v>1254</v>
       </c>
       <c r="B893" s="79" t="s">
-        <v>1313</v>
+        <v>1269</v>
       </c>
       <c r="C893" s="79" t="s">
-        <v>1314</v>
+        <v>1270</v>
       </c>
       <c r="D893" s="82">
         <v>215</v>
@@ -51531,49 +51414,49 @@
       <c r="E893" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H893" s="79" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I893" s="89" t="s">
-        <v>1202</v>
-      </c>
-      <c r="J893" s="85">
+      <c r="H893" s="94">
+        <v>43835</v>
+      </c>
+      <c r="I893" s="95">
+        <v>44567</v>
+      </c>
+      <c r="J893" s="84">
         <v>24</v>
       </c>
-      <c r="K893" s="85">
+      <c r="K893" s="84">
         <v>24</v>
       </c>
-      <c r="L893" s="86">
+      <c r="L893" s="85">
         <v>0.05</v>
       </c>
-      <c r="M893" s="86">
+      <c r="M893" s="85">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="N893" s="86">
+      <c r="N893" s="85">
         <v>1.21E-2</v>
       </c>
-      <c r="O893" s="86">
+      <c r="O893" s="85">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="P893" s="86">
+      <c r="P893" s="85">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="Q893" s="85">
+      <c r="Q893" s="84">
         <v>386</v>
       </c>
-      <c r="R893" s="88">
+      <c r="R893" s="87">
         <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="894" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A894" s="78" t="s">
-        <v>1299</v>
+        <v>1255</v>
       </c>
       <c r="B894" s="79" t="s">
-        <v>1313</v>
+        <v>1269</v>
       </c>
       <c r="C894" s="79" t="s">
-        <v>1314</v>
+        <v>1270</v>
       </c>
       <c r="D894" s="82">
         <v>150</v>
@@ -51581,49 +51464,49 @@
       <c r="E894" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H894" s="79" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I894" s="89" t="s">
-        <v>1202</v>
-      </c>
-      <c r="J894" s="85">
+      <c r="H894" s="94">
+        <v>43835</v>
+      </c>
+      <c r="I894" s="95">
+        <v>44567</v>
+      </c>
+      <c r="J894" s="84">
         <v>24</v>
       </c>
-      <c r="K894" s="85">
+      <c r="K894" s="84">
         <v>24</v>
       </c>
-      <c r="L894" s="86">
+      <c r="L894" s="85">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M894" s="86">
+      <c r="M894" s="85">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="N894" s="86">
+      <c r="N894" s="85">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="O894" s="86">
+      <c r="O894" s="85">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="P894" s="86">
+      <c r="P894" s="85">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="Q894" s="85">
+      <c r="Q894" s="84">
         <v>493</v>
       </c>
-      <c r="R894" s="88">
+      <c r="R894" s="87">
         <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="895" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A895" s="78" t="s">
-        <v>1300</v>
+        <v>1256</v>
       </c>
       <c r="B895" s="79" t="s">
-        <v>1315</v>
+        <v>1271</v>
       </c>
       <c r="C895" s="79" t="s">
-        <v>1316</v>
+        <v>1272</v>
       </c>
       <c r="D895" s="82">
         <v>200</v>
@@ -51631,49 +51514,49 @@
       <c r="E895" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H895" s="79" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I895" s="89" t="s">
-        <v>1205</v>
-      </c>
-      <c r="J895" s="85">
+      <c r="H895" s="94">
+        <v>44199</v>
+      </c>
+      <c r="I895" s="95">
+        <v>45297</v>
+      </c>
+      <c r="J895" s="84">
         <v>38</v>
       </c>
-      <c r="K895" s="85">
+      <c r="K895" s="84">
         <v>38</v>
       </c>
-      <c r="L895" s="86">
+      <c r="L895" s="85">
         <v>0.04</v>
       </c>
-      <c r="M895" s="86">
+      <c r="M895" s="85">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="N895" s="86">
+      <c r="N895" s="85">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="O895" s="86">
+      <c r="O895" s="85">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="P895" s="86">
+      <c r="P895" s="85">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q895" s="85">
+      <c r="Q895" s="84">
         <v>219</v>
       </c>
-      <c r="R895" s="88">
+      <c r="R895" s="87">
         <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="896" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A896" s="78" t="s">
-        <v>1301</v>
+        <v>1257</v>
       </c>
       <c r="B896" s="79" t="s">
-        <v>1315</v>
+        <v>1271</v>
       </c>
       <c r="C896" s="79" t="s">
-        <v>1316</v>
+        <v>1272</v>
       </c>
       <c r="D896" s="82">
         <v>200</v>
@@ -51681,46 +51564,46 @@
       <c r="E896" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H896" s="79" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I896" s="89" t="s">
-        <v>1205</v>
-      </c>
-      <c r="J896" s="85">
+      <c r="H896" s="94">
+        <v>44199</v>
+      </c>
+      <c r="I896" s="95">
+        <v>45297</v>
+      </c>
+      <c r="J896" s="84">
         <v>38</v>
       </c>
-      <c r="K896" s="85">
+      <c r="K896" s="84">
         <v>38</v>
       </c>
-      <c r="L896" s="86">
+      <c r="L896" s="85">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="M896" s="86">
+      <c r="M896" s="85">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="N896" s="86">
+      <c r="N896" s="85">
         <v>2.98E-2</v>
       </c>
-      <c r="O896" s="86">
+      <c r="O896" s="85">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="P896" s="86">
+      <c r="P896" s="85">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="Q896" s="85">
+      <c r="Q896" s="84">
         <v>234</v>
       </c>
-      <c r="R896" s="88">
+      <c r="R896" s="87">
         <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="897" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A897" s="78" t="s">
-        <v>1302</v>
+        <v>1258</v>
       </c>
       <c r="B897" s="79" t="s">
-        <v>1313</v>
+        <v>1269</v>
       </c>
       <c r="C897" s="79" t="s">
         <v>696</v>
@@ -51731,46 +51614,46 @@
       <c r="E897" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H897" s="79" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I897" s="89" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J897" s="85">
+      <c r="H897" s="94">
+        <v>43840</v>
+      </c>
+      <c r="I897" s="95">
+        <v>44938</v>
+      </c>
+      <c r="J897" s="84">
         <v>37</v>
       </c>
-      <c r="K897" s="85">
+      <c r="K897" s="84">
         <v>37</v>
       </c>
-      <c r="L897" s="86">
+      <c r="L897" s="85">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="M897" s="86">
+      <c r="M897" s="85">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="N897" s="86">
+      <c r="N897" s="85">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="O897" s="86">
+      <c r="O897" s="85">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="P897" s="86">
+      <c r="P897" s="85">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="Q897" s="85">
+      <c r="Q897" s="84">
         <v>290</v>
       </c>
-      <c r="R897" s="88">
+      <c r="R897" s="87">
         <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="898" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A898" s="78" t="s">
-        <v>1303</v>
+        <v>1259</v>
       </c>
       <c r="B898" s="79" t="s">
-        <v>1313</v>
+        <v>1269</v>
       </c>
       <c r="C898" s="79" t="s">
         <v>696</v>
@@ -51781,49 +51664,49 @@
       <c r="E898" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H898" s="79" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I898" s="89" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J898" s="85">
+      <c r="H898" s="94">
+        <v>43840</v>
+      </c>
+      <c r="I898" s="95">
+        <v>44938</v>
+      </c>
+      <c r="J898" s="84">
         <v>37</v>
       </c>
-      <c r="K898" s="85">
+      <c r="K898" s="84">
         <v>37</v>
       </c>
-      <c r="L898" s="86">
+      <c r="L898" s="85">
         <v>6.25E-2</v>
       </c>
-      <c r="M898" s="86">
+      <c r="M898" s="85">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="N898" s="86">
+      <c r="N898" s="85">
         <v>2.53E-2</v>
       </c>
-      <c r="O898" s="86">
+      <c r="O898" s="85">
         <v>2.7E-2</v>
       </c>
-      <c r="P898" s="86">
+      <c r="P898" s="85">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="Q898" s="85">
+      <c r="Q898" s="84">
         <v>381</v>
       </c>
-      <c r="R898" s="88">
+      <c r="R898" s="87">
         <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="899" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A899" s="78" t="s">
-        <v>1304</v>
+        <v>1260</v>
       </c>
       <c r="B899" s="79" t="s">
-        <v>1313</v>
+        <v>1269</v>
       </c>
       <c r="C899" s="79" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="D899" s="82">
         <v>215</v>
@@ -51831,47 +51714,47 @@
       <c r="E899" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H899" s="79" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I899" s="89" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J899" s="85">
+      <c r="H899" s="94">
+        <v>44199</v>
+      </c>
+      <c r="I899" s="95">
+        <v>45303</v>
+      </c>
+      <c r="J899" s="84">
         <v>44</v>
       </c>
-      <c r="K899" s="85">
+      <c r="K899" s="84">
         <v>44</v>
       </c>
-      <c r="L899" s="86">
+      <c r="L899" s="85">
         <v>6.25E-2</v>
       </c>
-      <c r="M899" s="86">
+      <c r="M899" s="85">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="N899" s="86">
+      <c r="N899" s="85">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="O899" s="86">
+      <c r="O899" s="85">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="P899" s="90"/>
-      <c r="Q899" s="85">
+      <c r="P899" s="88"/>
+      <c r="Q899" s="84">
         <v>260</v>
       </c>
-      <c r="R899" s="88">
+      <c r="R899" s="87">
         <v>0.91700000000000004</v>
       </c>
     </row>
     <row r="900" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A900" s="78" t="s">
-        <v>1305</v>
+        <v>1261</v>
       </c>
       <c r="B900" s="79" t="s">
         <v>766</v>
       </c>
       <c r="C900" s="79" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D900" s="82">
         <v>112.3</v>
@@ -51879,37 +51762,37 @@
       <c r="E900" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="H900" s="79" t="s">
-        <v>931</v>
-      </c>
-      <c r="I900" s="89" t="s">
-        <v>1272</v>
-      </c>
-      <c r="J900" s="85">
+      <c r="H900" s="94">
+        <v>43836</v>
+      </c>
+      <c r="I900" s="95">
+        <v>45298</v>
+      </c>
+      <c r="J900" s="84">
         <v>48</v>
       </c>
-      <c r="K900" s="85">
+      <c r="K900" s="84">
         <v>48</v>
       </c>
-      <c r="L900" s="86">
+      <c r="L900" s="85">
         <v>0.04</v>
       </c>
-      <c r="M900" s="86">
+      <c r="M900" s="85">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="N900" s="86">
+      <c r="N900" s="85">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="O900" s="86">
+      <c r="O900" s="85">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="P900" s="86">
+      <c r="P900" s="85">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="Q900" s="85">
+      <c r="Q900" s="84">
         <v>150</v>
       </c>
-      <c r="R900" s="88">
+      <c r="R900" s="87">
         <v>0.76200000000000001</v>
       </c>
     </row>
